--- a/TrickOrTreat/e2j.xlsx
+++ b/TrickOrTreat/e2j.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/TrickOrTreat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/TrickOrTreat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819A433C-533C-7A44-B56A-E7C44AC22BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C1540-53C3-384A-84CD-C656C9DC0D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -518,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,9 +552,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -886,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1038,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -1050,7 +1046,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -1058,7 +1054,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -1066,7 +1062,7 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -1074,7 +1070,7 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -1082,7 +1078,7 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1090,7 +1086,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -1101,15 +1097,15 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1120,7 +1116,7 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1131,7 +1127,7 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -1142,7 +1138,7 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -1153,7 +1149,7 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -1162,30 +1158,33 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>420</v>
       </c>
+      <c r="C17">
+        <v>450</v>
+      </c>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="10">
@@ -1224,7 +1223,7 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="10">
@@ -1263,7 +1262,7 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="10">
@@ -1302,11 +1301,11 @@
       <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B24">
@@ -2012,7 +2011,7 @@
       </c>
     </row>
     <row r="32" spans="1:45" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="11">
@@ -2149,7 +2148,7 @@
       </c>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="K33" s="3"/>
@@ -2198,7 +2197,7 @@
       <c r="BB33" s="3"/>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H34" s="3"/>
@@ -2206,7 +2205,7 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B35">
@@ -2223,7 +2222,7 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B36">
@@ -2284,7 +2283,7 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B37">
@@ -2345,14 +2344,14 @@
       <c r="BB37" s="3"/>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B39">
@@ -2364,14 +2363,14 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H41" s="3"/>
@@ -2380,7 +2379,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="3"/>
@@ -2389,7 +2388,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B43">
@@ -2428,7 +2427,7 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B44">
@@ -2699,7 +2698,7 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H57" s="3"/>
@@ -2707,17 +2706,17 @@
       <c r="J57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="15">
-        <v>1</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="O58" s="16"/>
+      <c r="B58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -2841,94 +2840,94 @@
       <c r="A73" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>5000</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="12">
         <v>4990</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="12">
         <v>4970</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="12">
         <v>4940</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="12">
         <v>4900</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="12">
         <v>4850</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="12">
         <v>4790</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="12">
         <v>4720</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="12">
         <v>4640</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="12">
         <v>4550</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L73" s="12">
         <v>4450</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="12">
         <v>4340</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N73" s="12">
         <v>4220</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="12">
         <v>4090</v>
       </c>
-      <c r="P73" s="13">
+      <c r="P73" s="12">
         <v>3950</v>
       </c>
-      <c r="Q73" s="13">
+      <c r="Q73" s="12">
         <v>3800</v>
       </c>
-      <c r="R73" s="13">
+      <c r="R73" s="12">
         <v>3640</v>
       </c>
-      <c r="S73" s="13">
+      <c r="S73" s="12">
         <v>3470</v>
       </c>
-      <c r="T73" s="13">
+      <c r="T73" s="12">
         <v>3270</v>
       </c>
-      <c r="U73" s="13">
+      <c r="U73" s="12">
         <v>3060</v>
       </c>
-      <c r="V73" s="13">
+      <c r="V73" s="12">
         <v>2840</v>
       </c>
-      <c r="W73" s="13">
+      <c r="W73" s="12">
         <v>2610</v>
       </c>
-      <c r="X73" s="13">
+      <c r="X73" s="12">
         <v>2370</v>
       </c>
-      <c r="Y73" s="13">
+      <c r="Y73" s="12">
         <v>2110</v>
       </c>
-      <c r="Z73" s="13">
+      <c r="Z73" s="12">
         <v>1810</v>
       </c>
-      <c r="AA73" s="13">
+      <c r="AA73" s="12">
         <v>1490</v>
       </c>
-      <c r="AB73" s="13">
+      <c r="AB73" s="12">
         <v>1150</v>
       </c>
-      <c r="AC73" s="13">
+      <c r="AC73" s="12">
         <v>790</v>
       </c>
-      <c r="AD73" s="13">
+      <c r="AD73" s="12">
         <v>410</v>
       </c>
-      <c r="AE73" s="13">
+      <c r="AE73" s="12">
         <v>10</v>
       </c>
     </row>
@@ -3032,483 +3031,483 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+    <row r="86" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="14">
-        <v>1</v>
-      </c>
-      <c r="C86" s="14">
+      <c r="B86" s="13">
+        <v>1</v>
+      </c>
+      <c r="C86" s="13">
         <v>2</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="13">
         <v>3</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="13">
         <v>4</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="13">
         <v>5</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="13">
         <v>6</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <v>7</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I86" s="13">
         <v>8</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J86" s="13">
         <v>9</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K86" s="13">
         <v>10</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L86" s="13">
         <v>11</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M86" s="13">
         <v>12</v>
       </c>
-      <c r="N86" s="14">
+      <c r="N86" s="13">
         <v>13</v>
       </c>
-      <c r="O86" s="14">
+      <c r="O86" s="13">
         <v>14</v>
       </c>
-      <c r="P86" s="14">
+      <c r="P86" s="13">
         <v>15</v>
       </c>
-      <c r="Q86" s="14">
+      <c r="Q86" s="13">
         <v>16</v>
       </c>
-      <c r="R86" s="14">
+      <c r="R86" s="13">
         <v>17</v>
       </c>
-      <c r="S86" s="14">
+      <c r="S86" s="13">
         <v>18</v>
       </c>
-      <c r="T86" s="14">
+      <c r="T86" s="13">
         <v>19</v>
       </c>
-      <c r="U86" s="14">
+      <c r="U86" s="13">
         <v>20</v>
       </c>
-      <c r="V86" s="14">
+      <c r="V86" s="13">
         <v>21</v>
       </c>
-      <c r="W86" s="14">
+      <c r="W86" s="13">
         <v>22</v>
       </c>
-      <c r="X86" s="14">
+      <c r="X86" s="13">
         <v>23</v>
       </c>
-      <c r="Y86" s="14">
+      <c r="Y86" s="13">
         <v>24</v>
       </c>
-      <c r="Z86" s="14">
+      <c r="Z86" s="13">
         <v>25</v>
       </c>
-      <c r="AA86" s="14">
+      <c r="AA86" s="13">
         <v>26</v>
       </c>
-      <c r="AB86" s="14">
+      <c r="AB86" s="13">
         <v>27</v>
       </c>
-      <c r="AC86" s="14">
+      <c r="AC86" s="13">
         <v>28</v>
       </c>
-      <c r="AD86" s="14">
+      <c r="AD86" s="13">
         <v>29</v>
       </c>
-      <c r="AE86" s="14">
+      <c r="AE86" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>100041</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="13">
         <v>100042</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="13">
         <v>100043</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="13">
         <v>100044</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="13">
         <v>100045</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G88" s="13">
         <v>100046</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="13">
         <v>100047</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I88" s="13">
         <v>100048</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="13">
         <v>100049</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K88" s="13">
         <v>100050</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="13">
         <v>100051</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M88" s="13">
         <v>100052</v>
       </c>
-      <c r="N88" s="14">
+      <c r="N88" s="13">
         <v>100053</v>
       </c>
-      <c r="O88" s="14">
+      <c r="O88" s="13">
         <v>100054</v>
       </c>
-      <c r="P88" s="14">
+      <c r="P88" s="13">
         <v>100055</v>
       </c>
-      <c r="Q88" s="14">
+      <c r="Q88" s="13">
         <v>100056</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R88" s="13">
         <v>100057</v>
       </c>
-      <c r="S88" s="14">
+      <c r="S88" s="13">
         <v>100058</v>
       </c>
-      <c r="T88" s="14">
+      <c r="T88" s="13">
         <v>100059</v>
       </c>
-      <c r="U88" s="14">
+      <c r="U88" s="13">
         <v>100060</v>
       </c>
-      <c r="V88" s="14">
+      <c r="V88" s="13">
         <v>100061</v>
       </c>
-      <c r="W88" s="14">
+      <c r="W88" s="13">
         <v>100062</v>
       </c>
-      <c r="X88" s="14">
+      <c r="X88" s="13">
         <v>100063</v>
       </c>
-      <c r="Y88" s="14">
+      <c r="Y88" s="13">
         <v>100064</v>
       </c>
-      <c r="Z88" s="14">
+      <c r="Z88" s="13">
         <v>100065</v>
       </c>
-      <c r="AA88" s="14">
+      <c r="AA88" s="13">
         <v>100066</v>
       </c>
-      <c r="AB88" s="14">
+      <c r="AB88" s="13">
         <v>100067</v>
       </c>
-      <c r="AC88" s="14">
+      <c r="AC88" s="13">
         <v>100068</v>
       </c>
-      <c r="AD88" s="14">
+      <c r="AD88" s="13">
         <v>100069</v>
       </c>
-      <c r="AE88" s="14">
+      <c r="AE88" s="13">
         <v>100070</v>
       </c>
     </row>
-    <row r="89" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="14">
-        <v>1</v>
-      </c>
-      <c r="C89" s="14">
-        <v>1</v>
-      </c>
-      <c r="D89" s="14">
-        <v>1</v>
-      </c>
-      <c r="E89" s="14">
-        <v>1</v>
-      </c>
-      <c r="F89" s="14">
-        <v>1</v>
-      </c>
-      <c r="G89" s="14">
-        <v>1</v>
-      </c>
-      <c r="H89" s="14">
-        <v>1</v>
-      </c>
-      <c r="I89" s="14">
-        <v>1</v>
-      </c>
-      <c r="J89" s="14">
-        <v>1</v>
-      </c>
-      <c r="K89" s="14">
-        <v>1</v>
-      </c>
-      <c r="L89" s="14">
-        <v>1</v>
-      </c>
-      <c r="M89" s="14">
-        <v>1</v>
-      </c>
-      <c r="N89" s="14">
-        <v>1</v>
-      </c>
-      <c r="O89" s="14">
-        <v>1</v>
-      </c>
-      <c r="P89" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="14">
-        <v>1</v>
-      </c>
-      <c r="R89" s="14">
-        <v>1</v>
-      </c>
-      <c r="S89" s="14">
-        <v>1</v>
-      </c>
-      <c r="T89" s="14">
-        <v>1</v>
-      </c>
-      <c r="U89" s="14">
-        <v>1</v>
-      </c>
-      <c r="V89" s="14">
-        <v>1</v>
-      </c>
-      <c r="W89" s="14">
-        <v>1</v>
-      </c>
-      <c r="X89" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA89" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB89" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC89" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
+      <c r="B89" s="13">
+        <v>1</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13">
+        <v>1</v>
+      </c>
+      <c r="F89" s="13">
+        <v>1</v>
+      </c>
+      <c r="G89" s="13">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13">
+        <v>1</v>
+      </c>
+      <c r="I89" s="13">
+        <v>1</v>
+      </c>
+      <c r="J89" s="13">
+        <v>1</v>
+      </c>
+      <c r="K89" s="13">
+        <v>1</v>
+      </c>
+      <c r="L89" s="13">
+        <v>1</v>
+      </c>
+      <c r="M89" s="13">
+        <v>1</v>
+      </c>
+      <c r="N89" s="13">
+        <v>1</v>
+      </c>
+      <c r="O89" s="13">
+        <v>1</v>
+      </c>
+      <c r="P89" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>1</v>
+      </c>
+      <c r="R89" s="13">
+        <v>1</v>
+      </c>
+      <c r="S89" s="13">
+        <v>1</v>
+      </c>
+      <c r="T89" s="13">
+        <v>1</v>
+      </c>
+      <c r="U89" s="13">
+        <v>1</v>
+      </c>
+      <c r="V89" s="13">
+        <v>1</v>
+      </c>
+      <c r="W89" s="13">
+        <v>1</v>
+      </c>
+      <c r="X89" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="14">
-        <v>31</v>
-      </c>
-      <c r="C90" s="14">
-        <v>31</v>
-      </c>
-      <c r="D90" s="14">
-        <v>31</v>
-      </c>
-      <c r="E90" s="14">
-        <v>31</v>
-      </c>
-      <c r="F90" s="14">
-        <v>31</v>
-      </c>
-      <c r="G90" s="14">
-        <v>31</v>
-      </c>
-      <c r="H90" s="14">
-        <v>31</v>
-      </c>
-      <c r="I90" s="14">
-        <v>31</v>
-      </c>
-      <c r="J90" s="14">
-        <v>31</v>
-      </c>
-      <c r="K90" s="14">
-        <v>31</v>
-      </c>
-      <c r="L90" s="14">
-        <v>31</v>
-      </c>
-      <c r="M90" s="14">
-        <v>31</v>
-      </c>
-      <c r="N90" s="14">
-        <v>31</v>
-      </c>
-      <c r="O90" s="14">
-        <v>31</v>
-      </c>
-      <c r="P90" s="14">
-        <v>31</v>
-      </c>
-      <c r="Q90" s="14">
-        <v>31</v>
-      </c>
-      <c r="R90" s="14">
-        <v>31</v>
-      </c>
-      <c r="S90" s="14">
-        <v>31</v>
-      </c>
-      <c r="T90" s="14">
-        <v>31</v>
-      </c>
-      <c r="U90" s="14">
-        <v>31</v>
-      </c>
-      <c r="V90" s="14">
-        <v>31</v>
-      </c>
-      <c r="W90" s="14">
-        <v>31</v>
-      </c>
-      <c r="X90" s="14">
-        <v>31</v>
-      </c>
-      <c r="Y90" s="14">
-        <v>31</v>
-      </c>
-      <c r="Z90" s="14">
-        <v>31</v>
-      </c>
-      <c r="AA90" s="14">
-        <v>31</v>
-      </c>
-      <c r="AB90" s="14">
-        <v>31</v>
-      </c>
-      <c r="AC90" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD90" s="14">
-        <v>31</v>
-      </c>
-      <c r="AE90" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
+      <c r="B90" s="13">
+        <v>31</v>
+      </c>
+      <c r="C90" s="13">
+        <v>31</v>
+      </c>
+      <c r="D90" s="13">
+        <v>31</v>
+      </c>
+      <c r="E90" s="13">
+        <v>31</v>
+      </c>
+      <c r="F90" s="13">
+        <v>31</v>
+      </c>
+      <c r="G90" s="13">
+        <v>31</v>
+      </c>
+      <c r="H90" s="13">
+        <v>31</v>
+      </c>
+      <c r="I90" s="13">
+        <v>31</v>
+      </c>
+      <c r="J90" s="13">
+        <v>31</v>
+      </c>
+      <c r="K90" s="13">
+        <v>31</v>
+      </c>
+      <c r="L90" s="13">
+        <v>31</v>
+      </c>
+      <c r="M90" s="13">
+        <v>31</v>
+      </c>
+      <c r="N90" s="13">
+        <v>31</v>
+      </c>
+      <c r="O90" s="13">
+        <v>31</v>
+      </c>
+      <c r="P90" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>31</v>
+      </c>
+      <c r="R90" s="13">
+        <v>31</v>
+      </c>
+      <c r="S90" s="13">
+        <v>31</v>
+      </c>
+      <c r="T90" s="13">
+        <v>31</v>
+      </c>
+      <c r="U90" s="13">
+        <v>31</v>
+      </c>
+      <c r="V90" s="13">
+        <v>31</v>
+      </c>
+      <c r="W90" s="13">
+        <v>31</v>
+      </c>
+      <c r="X90" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y90" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z90" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA90" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB90" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC90" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD90" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE90" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B91" s="14">
-        <v>0</v>
-      </c>
-      <c r="C91" s="14">
-        <v>0</v>
-      </c>
-      <c r="D91" s="14">
-        <v>0</v>
-      </c>
-      <c r="E91" s="14">
-        <v>0</v>
-      </c>
-      <c r="F91" s="14">
-        <v>0</v>
-      </c>
-      <c r="G91" s="14">
-        <v>0</v>
-      </c>
-      <c r="H91" s="14">
-        <v>0</v>
-      </c>
-      <c r="I91" s="14">
-        <v>0</v>
-      </c>
-      <c r="J91" s="14">
-        <v>0</v>
-      </c>
-      <c r="K91" s="14">
-        <v>0</v>
-      </c>
-      <c r="L91" s="14">
-        <v>0</v>
-      </c>
-      <c r="M91" s="14">
-        <v>0</v>
-      </c>
-      <c r="N91" s="14">
-        <v>0</v>
-      </c>
-      <c r="O91" s="14">
-        <v>0</v>
-      </c>
-      <c r="P91" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="14">
-        <v>0</v>
-      </c>
-      <c r="R91" s="14">
-        <v>0</v>
-      </c>
-      <c r="S91" s="14">
-        <v>0</v>
-      </c>
-      <c r="T91" s="14">
-        <v>0</v>
-      </c>
-      <c r="U91" s="14">
-        <v>0</v>
-      </c>
-      <c r="V91" s="14">
-        <v>0</v>
-      </c>
-      <c r="W91" s="14">
-        <v>0</v>
-      </c>
-      <c r="X91" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="14">
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="13">
+        <v>0</v>
+      </c>
+      <c r="D91" s="13">
+        <v>0</v>
+      </c>
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
+        <v>0</v>
+      </c>
+      <c r="G91" s="13">
+        <v>0</v>
+      </c>
+      <c r="H91" s="13">
+        <v>0</v>
+      </c>
+      <c r="I91" s="13">
+        <v>0</v>
+      </c>
+      <c r="J91" s="13">
+        <v>0</v>
+      </c>
+      <c r="K91" s="13">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>0</v>
+      </c>
+      <c r="M91" s="13">
+        <v>0</v>
+      </c>
+      <c r="N91" s="13">
+        <v>0</v>
+      </c>
+      <c r="O91" s="13">
+        <v>0</v>
+      </c>
+      <c r="P91" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>0</v>
+      </c>
+      <c r="R91" s="13">
+        <v>0</v>
+      </c>
+      <c r="S91" s="13">
+        <v>0</v>
+      </c>
+      <c r="T91" s="13">
+        <v>0</v>
+      </c>
+      <c r="U91" s="13">
+        <v>0</v>
+      </c>
+      <c r="V91" s="13">
+        <v>0</v>
+      </c>
+      <c r="W91" s="13">
+        <v>0</v>
+      </c>
+      <c r="X91" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="13">
         <v>0</v>
       </c>
     </row>
@@ -3767,483 +3766,483 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
+    <row r="118" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B118" s="14">
-        <v>1</v>
-      </c>
-      <c r="C118" s="14">
+      <c r="B118" s="13">
+        <v>1</v>
+      </c>
+      <c r="C118" s="13">
         <v>2</v>
       </c>
-      <c r="D118" s="14">
+      <c r="D118" s="13">
         <v>3</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="13">
         <v>4</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F118" s="13">
         <v>5</v>
       </c>
-      <c r="G118" s="14">
+      <c r="G118" s="13">
         <v>6</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="13">
         <v>7</v>
       </c>
-      <c r="I118" s="14">
+      <c r="I118" s="13">
         <v>8</v>
       </c>
-      <c r="J118" s="14">
+      <c r="J118" s="13">
         <v>9</v>
       </c>
-      <c r="K118" s="14">
+      <c r="K118" s="13">
         <v>10</v>
       </c>
-      <c r="L118" s="14">
+      <c r="L118" s="13">
         <v>11</v>
       </c>
-      <c r="M118" s="14">
+      <c r="M118" s="13">
         <v>12</v>
       </c>
-      <c r="N118" s="14">
+      <c r="N118" s="13">
         <v>13</v>
       </c>
-      <c r="O118" s="14">
+      <c r="O118" s="13">
         <v>14</v>
       </c>
-      <c r="P118" s="14">
+      <c r="P118" s="13">
         <v>15</v>
       </c>
-      <c r="Q118" s="14">
+      <c r="Q118" s="13">
         <v>16</v>
       </c>
-      <c r="R118" s="14">
+      <c r="R118" s="13">
         <v>17</v>
       </c>
-      <c r="S118" s="14">
+      <c r="S118" s="13">
         <v>18</v>
       </c>
-      <c r="T118" s="14">
+      <c r="T118" s="13">
         <v>19</v>
       </c>
-      <c r="U118" s="14">
+      <c r="U118" s="13">
         <v>20</v>
       </c>
-      <c r="V118" s="14">
+      <c r="V118" s="13">
         <v>21</v>
       </c>
-      <c r="W118" s="14">
+      <c r="W118" s="13">
         <v>22</v>
       </c>
-      <c r="X118" s="14">
+      <c r="X118" s="13">
         <v>23</v>
       </c>
-      <c r="Y118" s="14">
+      <c r="Y118" s="13">
         <v>24</v>
       </c>
-      <c r="Z118" s="14">
+      <c r="Z118" s="13">
         <v>25</v>
       </c>
-      <c r="AA118" s="14">
+      <c r="AA118" s="13">
         <v>26</v>
       </c>
-      <c r="AB118" s="14">
+      <c r="AB118" s="13">
         <v>27</v>
       </c>
-      <c r="AC118" s="14">
+      <c r="AC118" s="13">
         <v>28</v>
       </c>
-      <c r="AD118" s="14">
+      <c r="AD118" s="13">
         <v>29</v>
       </c>
-      <c r="AE118" s="14">
+      <c r="AE118" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
+    <row r="119" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
+    <row r="120" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B120" s="14">
+      <c r="B120" s="13">
         <v>1000146</v>
       </c>
-      <c r="C120" s="14">
+      <c r="C120" s="13">
         <v>1000147</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="13">
         <v>1000148</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="13">
         <v>1000149</v>
       </c>
-      <c r="F120" s="14">
+      <c r="F120" s="13">
         <v>1000150</v>
       </c>
-      <c r="G120" s="14">
+      <c r="G120" s="13">
         <v>1000151</v>
       </c>
-      <c r="H120" s="14">
+      <c r="H120" s="13">
         <v>1000152</v>
       </c>
-      <c r="I120" s="14">
+      <c r="I120" s="13">
         <v>1000153</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="13">
         <v>1000154</v>
       </c>
-      <c r="K120" s="14">
+      <c r="K120" s="13">
         <v>1000155</v>
       </c>
-      <c r="L120" s="14">
+      <c r="L120" s="13">
         <v>1000156</v>
       </c>
-      <c r="M120" s="14">
+      <c r="M120" s="13">
         <v>1000157</v>
       </c>
-      <c r="N120" s="14">
+      <c r="N120" s="13">
         <v>1000158</v>
       </c>
-      <c r="O120" s="14">
+      <c r="O120" s="13">
         <v>1000159</v>
       </c>
-      <c r="P120" s="14">
+      <c r="P120" s="13">
         <v>1000160</v>
       </c>
-      <c r="Q120" s="14">
+      <c r="Q120" s="13">
         <v>1000161</v>
       </c>
-      <c r="R120" s="14">
+      <c r="R120" s="13">
         <v>1000162</v>
       </c>
-      <c r="S120" s="14">
+      <c r="S120" s="13">
         <v>1000163</v>
       </c>
-      <c r="T120" s="14">
+      <c r="T120" s="13">
         <v>1000164</v>
       </c>
-      <c r="U120" s="14">
+      <c r="U120" s="13">
         <v>1000165</v>
       </c>
-      <c r="V120" s="14">
+      <c r="V120" s="13">
         <v>1000166</v>
       </c>
-      <c r="W120" s="14">
+      <c r="W120" s="13">
         <v>1000167</v>
       </c>
-      <c r="X120" s="14">
+      <c r="X120" s="13">
         <v>1000168</v>
       </c>
-      <c r="Y120" s="14">
+      <c r="Y120" s="13">
         <v>1000169</v>
       </c>
-      <c r="Z120" s="14">
+      <c r="Z120" s="13">
         <v>1000170</v>
       </c>
-      <c r="AA120" s="14">
+      <c r="AA120" s="13">
         <v>1000171</v>
       </c>
-      <c r="AB120" s="14">
+      <c r="AB120" s="13">
         <v>1000172</v>
       </c>
-      <c r="AC120" s="14">
+      <c r="AC120" s="13">
         <v>1000173</v>
       </c>
-      <c r="AD120" s="14">
+      <c r="AD120" s="13">
         <v>1000174</v>
       </c>
-      <c r="AE120" s="14">
+      <c r="AE120" s="13">
         <v>1000175</v>
       </c>
     </row>
-    <row r="121" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="14" t="s">
+    <row r="121" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="14">
-        <v>1</v>
-      </c>
-      <c r="C121" s="14">
-        <v>1</v>
-      </c>
-      <c r="D121" s="14">
-        <v>1</v>
-      </c>
-      <c r="E121" s="14">
-        <v>1</v>
-      </c>
-      <c r="F121" s="14">
-        <v>1</v>
-      </c>
-      <c r="G121" s="14">
-        <v>1</v>
-      </c>
-      <c r="H121" s="14">
-        <v>1</v>
-      </c>
-      <c r="I121" s="14">
-        <v>1</v>
-      </c>
-      <c r="J121" s="14">
-        <v>1</v>
-      </c>
-      <c r="K121" s="14">
-        <v>1</v>
-      </c>
-      <c r="L121" s="14">
-        <v>1</v>
-      </c>
-      <c r="M121" s="14">
-        <v>1</v>
-      </c>
-      <c r="N121" s="14">
-        <v>1</v>
-      </c>
-      <c r="O121" s="14">
-        <v>1</v>
-      </c>
-      <c r="P121" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="14">
-        <v>1</v>
-      </c>
-      <c r="R121" s="14">
-        <v>1</v>
-      </c>
-      <c r="S121" s="14">
-        <v>1</v>
-      </c>
-      <c r="T121" s="14">
-        <v>1</v>
-      </c>
-      <c r="U121" s="14">
-        <v>1</v>
-      </c>
-      <c r="V121" s="14">
-        <v>1</v>
-      </c>
-      <c r="W121" s="14">
-        <v>1</v>
-      </c>
-      <c r="X121" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y121" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA121" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB121" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC121" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD121" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE121" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
+      <c r="B121" s="13">
+        <v>1</v>
+      </c>
+      <c r="C121" s="13">
+        <v>1</v>
+      </c>
+      <c r="D121" s="13">
+        <v>1</v>
+      </c>
+      <c r="E121" s="13">
+        <v>1</v>
+      </c>
+      <c r="F121" s="13">
+        <v>1</v>
+      </c>
+      <c r="G121" s="13">
+        <v>1</v>
+      </c>
+      <c r="H121" s="13">
+        <v>1</v>
+      </c>
+      <c r="I121" s="13">
+        <v>1</v>
+      </c>
+      <c r="J121" s="13">
+        <v>1</v>
+      </c>
+      <c r="K121" s="13">
+        <v>1</v>
+      </c>
+      <c r="L121" s="13">
+        <v>1</v>
+      </c>
+      <c r="M121" s="13">
+        <v>1</v>
+      </c>
+      <c r="N121" s="13">
+        <v>1</v>
+      </c>
+      <c r="O121" s="13">
+        <v>1</v>
+      </c>
+      <c r="P121" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="13">
+        <v>1</v>
+      </c>
+      <c r="R121" s="13">
+        <v>1</v>
+      </c>
+      <c r="S121" s="13">
+        <v>1</v>
+      </c>
+      <c r="T121" s="13">
+        <v>1</v>
+      </c>
+      <c r="U121" s="13">
+        <v>1</v>
+      </c>
+      <c r="V121" s="13">
+        <v>1</v>
+      </c>
+      <c r="W121" s="13">
+        <v>1</v>
+      </c>
+      <c r="X121" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y121" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA121" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB121" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC121" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD121" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE121" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B122" s="14">
-        <v>31</v>
-      </c>
-      <c r="C122" s="14">
-        <v>31</v>
-      </c>
-      <c r="D122" s="14">
-        <v>31</v>
-      </c>
-      <c r="E122" s="14">
-        <v>31</v>
-      </c>
-      <c r="F122" s="14">
-        <v>31</v>
-      </c>
-      <c r="G122" s="14">
-        <v>31</v>
-      </c>
-      <c r="H122" s="14">
-        <v>31</v>
-      </c>
-      <c r="I122" s="14">
-        <v>31</v>
-      </c>
-      <c r="J122" s="14">
-        <v>31</v>
-      </c>
-      <c r="K122" s="14">
-        <v>31</v>
-      </c>
-      <c r="L122" s="14">
-        <v>31</v>
-      </c>
-      <c r="M122" s="14">
-        <v>31</v>
-      </c>
-      <c r="N122" s="14">
-        <v>31</v>
-      </c>
-      <c r="O122" s="14">
-        <v>31</v>
-      </c>
-      <c r="P122" s="14">
-        <v>31</v>
-      </c>
-      <c r="Q122" s="14">
-        <v>31</v>
-      </c>
-      <c r="R122" s="14">
-        <v>31</v>
-      </c>
-      <c r="S122" s="14">
-        <v>31</v>
-      </c>
-      <c r="T122" s="14">
-        <v>31</v>
-      </c>
-      <c r="U122" s="14">
-        <v>31</v>
-      </c>
-      <c r="V122" s="14">
-        <v>31</v>
-      </c>
-      <c r="W122" s="14">
-        <v>31</v>
-      </c>
-      <c r="X122" s="14">
-        <v>31</v>
-      </c>
-      <c r="Y122" s="14">
-        <v>31</v>
-      </c>
-      <c r="Z122" s="14">
-        <v>31</v>
-      </c>
-      <c r="AA122" s="14">
-        <v>31</v>
-      </c>
-      <c r="AB122" s="14">
-        <v>31</v>
-      </c>
-      <c r="AC122" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD122" s="14">
-        <v>31</v>
-      </c>
-      <c r="AE122" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
+      <c r="B122" s="13">
+        <v>31</v>
+      </c>
+      <c r="C122" s="13">
+        <v>31</v>
+      </c>
+      <c r="D122" s="13">
+        <v>31</v>
+      </c>
+      <c r="E122" s="13">
+        <v>31</v>
+      </c>
+      <c r="F122" s="13">
+        <v>31</v>
+      </c>
+      <c r="G122" s="13">
+        <v>31</v>
+      </c>
+      <c r="H122" s="13">
+        <v>31</v>
+      </c>
+      <c r="I122" s="13">
+        <v>31</v>
+      </c>
+      <c r="J122" s="13">
+        <v>31</v>
+      </c>
+      <c r="K122" s="13">
+        <v>31</v>
+      </c>
+      <c r="L122" s="13">
+        <v>31</v>
+      </c>
+      <c r="M122" s="13">
+        <v>31</v>
+      </c>
+      <c r="N122" s="13">
+        <v>31</v>
+      </c>
+      <c r="O122" s="13">
+        <v>31</v>
+      </c>
+      <c r="P122" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q122" s="13">
+        <v>31</v>
+      </c>
+      <c r="R122" s="13">
+        <v>31</v>
+      </c>
+      <c r="S122" s="13">
+        <v>31</v>
+      </c>
+      <c r="T122" s="13">
+        <v>31</v>
+      </c>
+      <c r="U122" s="13">
+        <v>31</v>
+      </c>
+      <c r="V122" s="13">
+        <v>31</v>
+      </c>
+      <c r="W122" s="13">
+        <v>31</v>
+      </c>
+      <c r="X122" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y122" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z122" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA122" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB122" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC122" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD122" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE122" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="14">
-        <v>0</v>
-      </c>
-      <c r="C123" s="14">
-        <v>0</v>
-      </c>
-      <c r="D123" s="14">
-        <v>0</v>
-      </c>
-      <c r="E123" s="14">
-        <v>0</v>
-      </c>
-      <c r="F123" s="14">
-        <v>0</v>
-      </c>
-      <c r="G123" s="14">
-        <v>0</v>
-      </c>
-      <c r="H123" s="14">
-        <v>0</v>
-      </c>
-      <c r="I123" s="14">
-        <v>0</v>
-      </c>
-      <c r="J123" s="14">
-        <v>0</v>
-      </c>
-      <c r="K123" s="14">
-        <v>0</v>
-      </c>
-      <c r="L123" s="14">
-        <v>0</v>
-      </c>
-      <c r="M123" s="14">
-        <v>0</v>
-      </c>
-      <c r="N123" s="14">
-        <v>0</v>
-      </c>
-      <c r="O123" s="14">
-        <v>0</v>
-      </c>
-      <c r="P123" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="14">
-        <v>0</v>
-      </c>
-      <c r="R123" s="14">
-        <v>0</v>
-      </c>
-      <c r="S123" s="14">
-        <v>0</v>
-      </c>
-      <c r="T123" s="14">
-        <v>0</v>
-      </c>
-      <c r="U123" s="14">
-        <v>0</v>
-      </c>
-      <c r="V123" s="14">
-        <v>0</v>
-      </c>
-      <c r="W123" s="14">
-        <v>0</v>
-      </c>
-      <c r="X123" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y123" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z123" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA123" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB123" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC123" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD123" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE123" s="14">
+      <c r="B123" s="13">
+        <v>0</v>
+      </c>
+      <c r="C123" s="13">
+        <v>0</v>
+      </c>
+      <c r="D123" s="13">
+        <v>0</v>
+      </c>
+      <c r="E123" s="13">
+        <v>0</v>
+      </c>
+      <c r="F123" s="13">
+        <v>0</v>
+      </c>
+      <c r="G123" s="13">
+        <v>0</v>
+      </c>
+      <c r="H123" s="13">
+        <v>0</v>
+      </c>
+      <c r="I123" s="13">
+        <v>0</v>
+      </c>
+      <c r="J123" s="13">
+        <v>0</v>
+      </c>
+      <c r="K123" s="13">
+        <v>0</v>
+      </c>
+      <c r="L123" s="13">
+        <v>0</v>
+      </c>
+      <c r="M123" s="13">
+        <v>0</v>
+      </c>
+      <c r="N123" s="13">
+        <v>0</v>
+      </c>
+      <c r="O123" s="13">
+        <v>0</v>
+      </c>
+      <c r="P123" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="13">
+        <v>0</v>
+      </c>
+      <c r="R123" s="13">
+        <v>0</v>
+      </c>
+      <c r="S123" s="13">
+        <v>0</v>
+      </c>
+      <c r="T123" s="13">
+        <v>0</v>
+      </c>
+      <c r="U123" s="13">
+        <v>0</v>
+      </c>
+      <c r="V123" s="13">
+        <v>0</v>
+      </c>
+      <c r="W123" s="13">
+        <v>0</v>
+      </c>
+      <c r="X123" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4445,11 +4444,11 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="15" t="s">
+    <row r="143" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B143" s="15">
+      <c r="B143" s="14">
         <v>2</v>
       </c>
     </row>
@@ -4533,94 +4532,94 @@
       <c r="A158" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B158" s="13">
+      <c r="B158" s="12">
         <v>5000</v>
       </c>
-      <c r="C158" s="13">
+      <c r="C158" s="12">
         <v>4990</v>
       </c>
-      <c r="D158" s="13">
+      <c r="D158" s="12">
         <v>4970</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="12">
         <v>4940</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="12">
         <v>4900</v>
       </c>
-      <c r="G158" s="13">
+      <c r="G158" s="12">
         <v>4850</v>
       </c>
-      <c r="H158" s="13">
+      <c r="H158" s="12">
         <v>4790</v>
       </c>
-      <c r="I158" s="13">
+      <c r="I158" s="12">
         <v>4720</v>
       </c>
-      <c r="J158" s="13">
+      <c r="J158" s="12">
         <v>4640</v>
       </c>
-      <c r="K158" s="13">
+      <c r="K158" s="12">
         <v>4550</v>
       </c>
-      <c r="L158" s="13">
+      <c r="L158" s="12">
         <v>4450</v>
       </c>
-      <c r="M158" s="13">
+      <c r="M158" s="12">
         <v>4340</v>
       </c>
-      <c r="N158" s="13">
+      <c r="N158" s="12">
         <v>4220</v>
       </c>
-      <c r="O158" s="13">
+      <c r="O158" s="12">
         <v>4090</v>
       </c>
-      <c r="P158" s="13">
+      <c r="P158" s="12">
         <v>3950</v>
       </c>
-      <c r="Q158" s="13">
+      <c r="Q158" s="12">
         <v>3800</v>
       </c>
-      <c r="R158" s="13">
+      <c r="R158" s="12">
         <v>3640</v>
       </c>
-      <c r="S158" s="13">
+      <c r="S158" s="12">
         <v>3470</v>
       </c>
-      <c r="T158" s="13">
+      <c r="T158" s="12">
         <v>3270</v>
       </c>
-      <c r="U158" s="13">
+      <c r="U158" s="12">
         <v>3060</v>
       </c>
-      <c r="V158" s="13">
+      <c r="V158" s="12">
         <v>2840</v>
       </c>
-      <c r="W158" s="13">
+      <c r="W158" s="12">
         <v>2610</v>
       </c>
-      <c r="X158" s="13">
+      <c r="X158" s="12">
         <v>2370</v>
       </c>
-      <c r="Y158" s="13">
+      <c r="Y158" s="12">
         <v>2110</v>
       </c>
-      <c r="Z158" s="13">
+      <c r="Z158" s="12">
         <v>1810</v>
       </c>
-      <c r="AA158" s="13">
+      <c r="AA158" s="12">
         <v>1490</v>
       </c>
-      <c r="AB158" s="13">
+      <c r="AB158" s="12">
         <v>1150</v>
       </c>
-      <c r="AC158" s="13">
+      <c r="AC158" s="12">
         <v>790</v>
       </c>
-      <c r="AD158" s="13">
+      <c r="AD158" s="12">
         <v>410</v>
       </c>
-      <c r="AE158" s="13">
+      <c r="AE158" s="12">
         <v>10</v>
       </c>
     </row>
@@ -4711,483 +4710,483 @@
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="14" t="s">
+    <row r="171" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B171" s="14">
-        <v>1</v>
-      </c>
-      <c r="C171" s="14">
+      <c r="B171" s="13">
+        <v>1</v>
+      </c>
+      <c r="C171" s="13">
         <v>2</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="13">
         <v>3</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171" s="13">
         <v>4</v>
       </c>
-      <c r="F171" s="14">
+      <c r="F171" s="13">
         <v>5</v>
       </c>
-      <c r="G171" s="14">
+      <c r="G171" s="13">
         <v>6</v>
       </c>
-      <c r="H171" s="14">
+      <c r="H171" s="13">
         <v>7</v>
       </c>
-      <c r="I171" s="14">
+      <c r="I171" s="13">
         <v>8</v>
       </c>
-      <c r="J171" s="14">
+      <c r="J171" s="13">
         <v>9</v>
       </c>
-      <c r="K171" s="14">
+      <c r="K171" s="13">
         <v>10</v>
       </c>
-      <c r="L171" s="14">
+      <c r="L171" s="13">
         <v>11</v>
       </c>
-      <c r="M171" s="14">
+      <c r="M171" s="13">
         <v>12</v>
       </c>
-      <c r="N171" s="14">
+      <c r="N171" s="13">
         <v>13</v>
       </c>
-      <c r="O171" s="14">
+      <c r="O171" s="13">
         <v>14</v>
       </c>
-      <c r="P171" s="14">
+      <c r="P171" s="13">
         <v>15</v>
       </c>
-      <c r="Q171" s="14">
+      <c r="Q171" s="13">
         <v>16</v>
       </c>
-      <c r="R171" s="14">
+      <c r="R171" s="13">
         <v>17</v>
       </c>
-      <c r="S171" s="14">
+      <c r="S171" s="13">
         <v>18</v>
       </c>
-      <c r="T171" s="14">
+      <c r="T171" s="13">
         <v>19</v>
       </c>
-      <c r="U171" s="14">
+      <c r="U171" s="13">
         <v>20</v>
       </c>
-      <c r="V171" s="14">
+      <c r="V171" s="13">
         <v>21</v>
       </c>
-      <c r="W171" s="14">
+      <c r="W171" s="13">
         <v>22</v>
       </c>
-      <c r="X171" s="14">
+      <c r="X171" s="13">
         <v>23</v>
       </c>
-      <c r="Y171" s="14">
+      <c r="Y171" s="13">
         <v>24</v>
       </c>
-      <c r="Z171" s="14">
+      <c r="Z171" s="13">
         <v>25</v>
       </c>
-      <c r="AA171" s="14">
+      <c r="AA171" s="13">
         <v>26</v>
       </c>
-      <c r="AB171" s="14">
+      <c r="AB171" s="13">
         <v>27</v>
       </c>
-      <c r="AC171" s="14">
+      <c r="AC171" s="13">
         <v>28</v>
       </c>
-      <c r="AD171" s="14">
+      <c r="AD171" s="13">
         <v>29</v>
       </c>
-      <c r="AE171" s="14">
+      <c r="AE171" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="14" t="s">
+    <row r="172" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="14" t="s">
+    <row r="173" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B173" s="14">
+      <c r="B173" s="13">
         <v>100086</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="13">
         <v>100087</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="13">
         <v>100088</v>
       </c>
-      <c r="E173" s="14">
+      <c r="E173" s="13">
         <v>100089</v>
       </c>
-      <c r="F173" s="14">
+      <c r="F173" s="13">
         <v>100090</v>
       </c>
-      <c r="G173" s="14">
+      <c r="G173" s="13">
         <v>100091</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H173" s="13">
         <v>100092</v>
       </c>
-      <c r="I173" s="14">
+      <c r="I173" s="13">
         <v>100093</v>
       </c>
-      <c r="J173" s="14">
+      <c r="J173" s="13">
         <v>100094</v>
       </c>
-      <c r="K173" s="14">
+      <c r="K173" s="13">
         <v>100095</v>
       </c>
-      <c r="L173" s="14">
+      <c r="L173" s="13">
         <v>100096</v>
       </c>
-      <c r="M173" s="14">
+      <c r="M173" s="13">
         <v>100097</v>
       </c>
-      <c r="N173" s="14">
+      <c r="N173" s="13">
         <v>100098</v>
       </c>
-      <c r="O173" s="14">
+      <c r="O173" s="13">
         <v>100099</v>
       </c>
-      <c r="P173" s="14">
+      <c r="P173" s="13">
         <v>100100</v>
       </c>
-      <c r="Q173" s="14">
+      <c r="Q173" s="13">
         <v>100101</v>
       </c>
-      <c r="R173" s="14">
+      <c r="R173" s="13">
         <v>100102</v>
       </c>
-      <c r="S173" s="14">
+      <c r="S173" s="13">
         <v>100103</v>
       </c>
-      <c r="T173" s="14">
+      <c r="T173" s="13">
         <v>100104</v>
       </c>
-      <c r="U173" s="14">
+      <c r="U173" s="13">
         <v>100105</v>
       </c>
-      <c r="V173" s="14">
+      <c r="V173" s="13">
         <v>100106</v>
       </c>
-      <c r="W173" s="14">
+      <c r="W173" s="13">
         <v>100107</v>
       </c>
-      <c r="X173" s="14">
+      <c r="X173" s="13">
         <v>100108</v>
       </c>
-      <c r="Y173" s="14">
+      <c r="Y173" s="13">
         <v>100109</v>
       </c>
-      <c r="Z173" s="14">
+      <c r="Z173" s="13">
         <v>100110</v>
       </c>
-      <c r="AA173" s="14">
+      <c r="AA173" s="13">
         <v>100111</v>
       </c>
-      <c r="AB173" s="14">
+      <c r="AB173" s="13">
         <v>100112</v>
       </c>
-      <c r="AC173" s="14">
+      <c r="AC173" s="13">
         <v>100113</v>
       </c>
-      <c r="AD173" s="14">
+      <c r="AD173" s="13">
         <v>100114</v>
       </c>
-      <c r="AE173" s="14">
+      <c r="AE173" s="13">
         <v>100115</v>
       </c>
     </row>
-    <row r="174" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="14" t="s">
+    <row r="174" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B174" s="14">
-        <v>1</v>
-      </c>
-      <c r="C174" s="14">
-        <v>1</v>
-      </c>
-      <c r="D174" s="14">
-        <v>1</v>
-      </c>
-      <c r="E174" s="14">
-        <v>1</v>
-      </c>
-      <c r="F174" s="14">
-        <v>1</v>
-      </c>
-      <c r="G174" s="14">
-        <v>1</v>
-      </c>
-      <c r="H174" s="14">
-        <v>1</v>
-      </c>
-      <c r="I174" s="14">
-        <v>1</v>
-      </c>
-      <c r="J174" s="14">
-        <v>1</v>
-      </c>
-      <c r="K174" s="14">
-        <v>1</v>
-      </c>
-      <c r="L174" s="14">
-        <v>1</v>
-      </c>
-      <c r="M174" s="14">
-        <v>1</v>
-      </c>
-      <c r="N174" s="14">
-        <v>1</v>
-      </c>
-      <c r="O174" s="14">
-        <v>1</v>
-      </c>
-      <c r="P174" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q174" s="14">
-        <v>1</v>
-      </c>
-      <c r="R174" s="14">
-        <v>1</v>
-      </c>
-      <c r="S174" s="14">
-        <v>1</v>
-      </c>
-      <c r="T174" s="14">
-        <v>1</v>
-      </c>
-      <c r="U174" s="14">
-        <v>1</v>
-      </c>
-      <c r="V174" s="14">
-        <v>1</v>
-      </c>
-      <c r="W174" s="14">
-        <v>1</v>
-      </c>
-      <c r="X174" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y174" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z174" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA174" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB174" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC174" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD174" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE174" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="14" t="s">
+      <c r="B174" s="13">
+        <v>1</v>
+      </c>
+      <c r="C174" s="13">
+        <v>1</v>
+      </c>
+      <c r="D174" s="13">
+        <v>1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13">
+        <v>1</v>
+      </c>
+      <c r="G174" s="13">
+        <v>1</v>
+      </c>
+      <c r="H174" s="13">
+        <v>1</v>
+      </c>
+      <c r="I174" s="13">
+        <v>1</v>
+      </c>
+      <c r="J174" s="13">
+        <v>1</v>
+      </c>
+      <c r="K174" s="13">
+        <v>1</v>
+      </c>
+      <c r="L174" s="13">
+        <v>1</v>
+      </c>
+      <c r="M174" s="13">
+        <v>1</v>
+      </c>
+      <c r="N174" s="13">
+        <v>1</v>
+      </c>
+      <c r="O174" s="13">
+        <v>1</v>
+      </c>
+      <c r="P174" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="13">
+        <v>1</v>
+      </c>
+      <c r="R174" s="13">
+        <v>1</v>
+      </c>
+      <c r="S174" s="13">
+        <v>1</v>
+      </c>
+      <c r="T174" s="13">
+        <v>1</v>
+      </c>
+      <c r="U174" s="13">
+        <v>1</v>
+      </c>
+      <c r="V174" s="13">
+        <v>1</v>
+      </c>
+      <c r="W174" s="13">
+        <v>1</v>
+      </c>
+      <c r="X174" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y174" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z174" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA174" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB174" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC174" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD174" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE174" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B175" s="14">
-        <v>31</v>
-      </c>
-      <c r="C175" s="14">
-        <v>31</v>
-      </c>
-      <c r="D175" s="14">
-        <v>31</v>
-      </c>
-      <c r="E175" s="14">
-        <v>31</v>
-      </c>
-      <c r="F175" s="14">
-        <v>31</v>
-      </c>
-      <c r="G175" s="14">
-        <v>31</v>
-      </c>
-      <c r="H175" s="14">
-        <v>31</v>
-      </c>
-      <c r="I175" s="14">
-        <v>31</v>
-      </c>
-      <c r="J175" s="14">
-        <v>31</v>
-      </c>
-      <c r="K175" s="14">
-        <v>31</v>
-      </c>
-      <c r="L175" s="14">
-        <v>31</v>
-      </c>
-      <c r="M175" s="14">
-        <v>31</v>
-      </c>
-      <c r="N175" s="14">
-        <v>31</v>
-      </c>
-      <c r="O175" s="14">
-        <v>31</v>
-      </c>
-      <c r="P175" s="14">
-        <v>31</v>
-      </c>
-      <c r="Q175" s="14">
-        <v>31</v>
-      </c>
-      <c r="R175" s="14">
-        <v>31</v>
-      </c>
-      <c r="S175" s="14">
-        <v>31</v>
-      </c>
-      <c r="T175" s="14">
-        <v>31</v>
-      </c>
-      <c r="U175" s="14">
-        <v>31</v>
-      </c>
-      <c r="V175" s="14">
-        <v>31</v>
-      </c>
-      <c r="W175" s="14">
-        <v>31</v>
-      </c>
-      <c r="X175" s="14">
-        <v>31</v>
-      </c>
-      <c r="Y175" s="14">
-        <v>31</v>
-      </c>
-      <c r="Z175" s="14">
-        <v>31</v>
-      </c>
-      <c r="AA175" s="14">
-        <v>31</v>
-      </c>
-      <c r="AB175" s="14">
-        <v>31</v>
-      </c>
-      <c r="AC175" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD175" s="14">
-        <v>31</v>
-      </c>
-      <c r="AE175" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="176" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="14" t="s">
+      <c r="B175" s="13">
+        <v>31</v>
+      </c>
+      <c r="C175" s="13">
+        <v>31</v>
+      </c>
+      <c r="D175" s="13">
+        <v>31</v>
+      </c>
+      <c r="E175" s="13">
+        <v>31</v>
+      </c>
+      <c r="F175" s="13">
+        <v>31</v>
+      </c>
+      <c r="G175" s="13">
+        <v>31</v>
+      </c>
+      <c r="H175" s="13">
+        <v>31</v>
+      </c>
+      <c r="I175" s="13">
+        <v>31</v>
+      </c>
+      <c r="J175" s="13">
+        <v>31</v>
+      </c>
+      <c r="K175" s="13">
+        <v>31</v>
+      </c>
+      <c r="L175" s="13">
+        <v>31</v>
+      </c>
+      <c r="M175" s="13">
+        <v>31</v>
+      </c>
+      <c r="N175" s="13">
+        <v>31</v>
+      </c>
+      <c r="O175" s="13">
+        <v>31</v>
+      </c>
+      <c r="P175" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q175" s="13">
+        <v>31</v>
+      </c>
+      <c r="R175" s="13">
+        <v>31</v>
+      </c>
+      <c r="S175" s="13">
+        <v>31</v>
+      </c>
+      <c r="T175" s="13">
+        <v>31</v>
+      </c>
+      <c r="U175" s="13">
+        <v>31</v>
+      </c>
+      <c r="V175" s="13">
+        <v>31</v>
+      </c>
+      <c r="W175" s="13">
+        <v>31</v>
+      </c>
+      <c r="X175" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y175" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z175" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA175" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB175" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC175" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD175" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE175" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B176" s="14">
-        <v>0</v>
-      </c>
-      <c r="C176" s="14">
-        <v>0</v>
-      </c>
-      <c r="D176" s="14">
-        <v>0</v>
-      </c>
-      <c r="E176" s="14">
-        <v>0</v>
-      </c>
-      <c r="F176" s="14">
-        <v>0</v>
-      </c>
-      <c r="G176" s="14">
-        <v>0</v>
-      </c>
-      <c r="H176" s="14">
-        <v>0</v>
-      </c>
-      <c r="I176" s="14">
-        <v>0</v>
-      </c>
-      <c r="J176" s="14">
-        <v>0</v>
-      </c>
-      <c r="K176" s="14">
-        <v>0</v>
-      </c>
-      <c r="L176" s="14">
-        <v>0</v>
-      </c>
-      <c r="M176" s="14">
-        <v>0</v>
-      </c>
-      <c r="N176" s="14">
-        <v>0</v>
-      </c>
-      <c r="O176" s="14">
-        <v>0</v>
-      </c>
-      <c r="P176" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q176" s="14">
-        <v>0</v>
-      </c>
-      <c r="R176" s="14">
-        <v>0</v>
-      </c>
-      <c r="S176" s="14">
-        <v>0</v>
-      </c>
-      <c r="T176" s="14">
-        <v>0</v>
-      </c>
-      <c r="U176" s="14">
-        <v>0</v>
-      </c>
-      <c r="V176" s="14">
-        <v>0</v>
-      </c>
-      <c r="W176" s="14">
-        <v>0</v>
-      </c>
-      <c r="X176" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y176" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z176" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA176" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB176" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC176" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD176" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE176" s="14">
+      <c r="B176" s="13">
+        <v>0</v>
+      </c>
+      <c r="C176" s="13">
+        <v>0</v>
+      </c>
+      <c r="D176" s="13">
+        <v>0</v>
+      </c>
+      <c r="E176" s="13">
+        <v>0</v>
+      </c>
+      <c r="F176" s="13">
+        <v>0</v>
+      </c>
+      <c r="G176" s="13">
+        <v>0</v>
+      </c>
+      <c r="H176" s="13">
+        <v>0</v>
+      </c>
+      <c r="I176" s="13">
+        <v>0</v>
+      </c>
+      <c r="J176" s="13">
+        <v>0</v>
+      </c>
+      <c r="K176" s="13">
+        <v>0</v>
+      </c>
+      <c r="L176" s="13">
+        <v>0</v>
+      </c>
+      <c r="M176" s="13">
+        <v>0</v>
+      </c>
+      <c r="N176" s="13">
+        <v>0</v>
+      </c>
+      <c r="O176" s="13">
+        <v>0</v>
+      </c>
+      <c r="P176" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="13">
+        <v>0</v>
+      </c>
+      <c r="R176" s="13">
+        <v>0</v>
+      </c>
+      <c r="S176" s="13">
+        <v>0</v>
+      </c>
+      <c r="T176" s="13">
+        <v>0</v>
+      </c>
+      <c r="U176" s="13">
+        <v>0</v>
+      </c>
+      <c r="V176" s="13">
+        <v>0</v>
+      </c>
+      <c r="W176" s="13">
+        <v>0</v>
+      </c>
+      <c r="X176" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD176" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE176" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5485,483 +5484,483 @@
         <v>70</v>
       </c>
     </row>
-    <row r="203" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="14" t="s">
+    <row r="203" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B203" s="14">
-        <v>1</v>
-      </c>
-      <c r="C203" s="14">
+      <c r="B203" s="13">
+        <v>1</v>
+      </c>
+      <c r="C203" s="13">
         <v>2</v>
       </c>
-      <c r="D203" s="14">
+      <c r="D203" s="13">
         <v>3</v>
       </c>
-      <c r="E203" s="14">
+      <c r="E203" s="13">
         <v>4</v>
       </c>
-      <c r="F203" s="14">
+      <c r="F203" s="13">
         <v>5</v>
       </c>
-      <c r="G203" s="14">
+      <c r="G203" s="13">
         <v>6</v>
       </c>
-      <c r="H203" s="14">
+      <c r="H203" s="13">
         <v>7</v>
       </c>
-      <c r="I203" s="14">
+      <c r="I203" s="13">
         <v>8</v>
       </c>
-      <c r="J203" s="14">
+      <c r="J203" s="13">
         <v>9</v>
       </c>
-      <c r="K203" s="14">
+      <c r="K203" s="13">
         <v>10</v>
       </c>
-      <c r="L203" s="14">
+      <c r="L203" s="13">
         <v>11</v>
       </c>
-      <c r="M203" s="14">
+      <c r="M203" s="13">
         <v>12</v>
       </c>
-      <c r="N203" s="14">
+      <c r="N203" s="13">
         <v>13</v>
       </c>
-      <c r="O203" s="14">
+      <c r="O203" s="13">
         <v>14</v>
       </c>
-      <c r="P203" s="14">
+      <c r="P203" s="13">
         <v>15</v>
       </c>
-      <c r="Q203" s="14">
+      <c r="Q203" s="13">
         <v>16</v>
       </c>
-      <c r="R203" s="14">
+      <c r="R203" s="13">
         <v>17</v>
       </c>
-      <c r="S203" s="14">
+      <c r="S203" s="13">
         <v>18</v>
       </c>
-      <c r="T203" s="14">
+      <c r="T203" s="13">
         <v>19</v>
       </c>
-      <c r="U203" s="14">
+      <c r="U203" s="13">
         <v>20</v>
       </c>
-      <c r="V203" s="14">
+      <c r="V203" s="13">
         <v>21</v>
       </c>
-      <c r="W203" s="14">
+      <c r="W203" s="13">
         <v>22</v>
       </c>
-      <c r="X203" s="14">
+      <c r="X203" s="13">
         <v>23</v>
       </c>
-      <c r="Y203" s="14">
+      <c r="Y203" s="13">
         <v>24</v>
       </c>
-      <c r="Z203" s="14">
+      <c r="Z203" s="13">
         <v>25</v>
       </c>
-      <c r="AA203" s="14">
+      <c r="AA203" s="13">
         <v>26</v>
       </c>
-      <c r="AB203" s="14">
+      <c r="AB203" s="13">
         <v>27</v>
       </c>
-      <c r="AC203" s="14">
+      <c r="AC203" s="13">
         <v>28</v>
       </c>
-      <c r="AD203" s="14">
+      <c r="AD203" s="13">
         <v>29</v>
       </c>
-      <c r="AE203" s="14">
+      <c r="AE203" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="14" t="s">
+    <row r="204" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="14" t="s">
+    <row r="205" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B205" s="14">
+      <c r="B205" s="13">
         <v>100177</v>
       </c>
-      <c r="C205" s="14">
+      <c r="C205" s="13">
         <v>100178</v>
       </c>
-      <c r="D205" s="14">
+      <c r="D205" s="13">
         <v>100179</v>
       </c>
-      <c r="E205" s="14">
+      <c r="E205" s="13">
         <v>100180</v>
       </c>
-      <c r="F205" s="14">
+      <c r="F205" s="13">
         <v>100181</v>
       </c>
-      <c r="G205" s="14">
+      <c r="G205" s="13">
         <v>100182</v>
       </c>
-      <c r="H205" s="14">
+      <c r="H205" s="13">
         <v>100183</v>
       </c>
-      <c r="I205" s="14">
+      <c r="I205" s="13">
         <v>100184</v>
       </c>
-      <c r="J205" s="14">
+      <c r="J205" s="13">
         <v>100185</v>
       </c>
-      <c r="K205" s="14">
+      <c r="K205" s="13">
         <v>100186</v>
       </c>
-      <c r="L205" s="14">
+      <c r="L205" s="13">
         <v>100187</v>
       </c>
-      <c r="M205" s="14">
+      <c r="M205" s="13">
         <v>100188</v>
       </c>
-      <c r="N205" s="14">
+      <c r="N205" s="13">
         <v>100189</v>
       </c>
-      <c r="O205" s="14">
+      <c r="O205" s="13">
         <v>100190</v>
       </c>
-      <c r="P205" s="14">
+      <c r="P205" s="13">
         <v>100191</v>
       </c>
-      <c r="Q205" s="14">
+      <c r="Q205" s="13">
         <v>100192</v>
       </c>
-      <c r="R205" s="14">
+      <c r="R205" s="13">
         <v>100193</v>
       </c>
-      <c r="S205" s="14">
+      <c r="S205" s="13">
         <v>100194</v>
       </c>
-      <c r="T205" s="14">
+      <c r="T205" s="13">
         <v>100195</v>
       </c>
-      <c r="U205" s="14">
+      <c r="U205" s="13">
         <v>100196</v>
       </c>
-      <c r="V205" s="14">
+      <c r="V205" s="13">
         <v>100197</v>
       </c>
-      <c r="W205" s="14">
+      <c r="W205" s="13">
         <v>100198</v>
       </c>
-      <c r="X205" s="14">
+      <c r="X205" s="13">
         <v>100199</v>
       </c>
-      <c r="Y205" s="14">
+      <c r="Y205" s="13">
         <v>100200</v>
       </c>
-      <c r="Z205" s="14">
+      <c r="Z205" s="13">
         <v>100201</v>
       </c>
-      <c r="AA205" s="14">
+      <c r="AA205" s="13">
         <v>100202</v>
       </c>
-      <c r="AB205" s="14">
+      <c r="AB205" s="13">
         <v>100203</v>
       </c>
-      <c r="AC205" s="14">
+      <c r="AC205" s="13">
         <v>100204</v>
       </c>
-      <c r="AD205" s="14">
+      <c r="AD205" s="13">
         <v>100205</v>
       </c>
-      <c r="AE205" s="14">
+      <c r="AE205" s="13">
         <v>100206</v>
       </c>
     </row>
-    <row r="206" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="14" t="s">
+    <row r="206" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B206" s="14">
-        <v>1</v>
-      </c>
-      <c r="C206" s="14">
-        <v>1</v>
-      </c>
-      <c r="D206" s="14">
-        <v>1</v>
-      </c>
-      <c r="E206" s="14">
-        <v>1</v>
-      </c>
-      <c r="F206" s="14">
-        <v>1</v>
-      </c>
-      <c r="G206" s="14">
-        <v>1</v>
-      </c>
-      <c r="H206" s="14">
-        <v>1</v>
-      </c>
-      <c r="I206" s="14">
-        <v>1</v>
-      </c>
-      <c r="J206" s="14">
-        <v>1</v>
-      </c>
-      <c r="K206" s="14">
-        <v>1</v>
-      </c>
-      <c r="L206" s="14">
-        <v>1</v>
-      </c>
-      <c r="M206" s="14">
-        <v>1</v>
-      </c>
-      <c r="N206" s="14">
-        <v>1</v>
-      </c>
-      <c r="O206" s="14">
-        <v>1</v>
-      </c>
-      <c r="P206" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q206" s="14">
-        <v>1</v>
-      </c>
-      <c r="R206" s="14">
-        <v>1</v>
-      </c>
-      <c r="S206" s="14">
-        <v>1</v>
-      </c>
-      <c r="T206" s="14">
-        <v>1</v>
-      </c>
-      <c r="U206" s="14">
-        <v>1</v>
-      </c>
-      <c r="V206" s="14">
-        <v>1</v>
-      </c>
-      <c r="W206" s="14">
-        <v>1</v>
-      </c>
-      <c r="X206" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y206" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z206" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA206" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB206" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC206" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD206" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE206" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="14" t="s">
+      <c r="B206" s="13">
+        <v>1</v>
+      </c>
+      <c r="C206" s="13">
+        <v>1</v>
+      </c>
+      <c r="D206" s="13">
+        <v>1</v>
+      </c>
+      <c r="E206" s="13">
+        <v>1</v>
+      </c>
+      <c r="F206" s="13">
+        <v>1</v>
+      </c>
+      <c r="G206" s="13">
+        <v>1</v>
+      </c>
+      <c r="H206" s="13">
+        <v>1</v>
+      </c>
+      <c r="I206" s="13">
+        <v>1</v>
+      </c>
+      <c r="J206" s="13">
+        <v>1</v>
+      </c>
+      <c r="K206" s="13">
+        <v>1</v>
+      </c>
+      <c r="L206" s="13">
+        <v>1</v>
+      </c>
+      <c r="M206" s="13">
+        <v>1</v>
+      </c>
+      <c r="N206" s="13">
+        <v>1</v>
+      </c>
+      <c r="O206" s="13">
+        <v>1</v>
+      </c>
+      <c r="P206" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="13">
+        <v>1</v>
+      </c>
+      <c r="R206" s="13">
+        <v>1</v>
+      </c>
+      <c r="S206" s="13">
+        <v>1</v>
+      </c>
+      <c r="T206" s="13">
+        <v>1</v>
+      </c>
+      <c r="U206" s="13">
+        <v>1</v>
+      </c>
+      <c r="V206" s="13">
+        <v>1</v>
+      </c>
+      <c r="W206" s="13">
+        <v>1</v>
+      </c>
+      <c r="X206" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y206" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z206" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA206" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB206" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC206" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD206" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE206" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B207" s="14">
-        <v>31</v>
-      </c>
-      <c r="C207" s="14">
-        <v>31</v>
-      </c>
-      <c r="D207" s="14">
-        <v>31</v>
-      </c>
-      <c r="E207" s="14">
-        <v>31</v>
-      </c>
-      <c r="F207" s="14">
-        <v>31</v>
-      </c>
-      <c r="G207" s="14">
-        <v>31</v>
-      </c>
-      <c r="H207" s="14">
-        <v>31</v>
-      </c>
-      <c r="I207" s="14">
-        <v>31</v>
-      </c>
-      <c r="J207" s="14">
-        <v>31</v>
-      </c>
-      <c r="K207" s="14">
-        <v>31</v>
-      </c>
-      <c r="L207" s="14">
-        <v>31</v>
-      </c>
-      <c r="M207" s="14">
-        <v>31</v>
-      </c>
-      <c r="N207" s="14">
-        <v>31</v>
-      </c>
-      <c r="O207" s="14">
-        <v>31</v>
-      </c>
-      <c r="P207" s="14">
-        <v>31</v>
-      </c>
-      <c r="Q207" s="14">
-        <v>31</v>
-      </c>
-      <c r="R207" s="14">
-        <v>31</v>
-      </c>
-      <c r="S207" s="14">
-        <v>31</v>
-      </c>
-      <c r="T207" s="14">
-        <v>31</v>
-      </c>
-      <c r="U207" s="14">
-        <v>31</v>
-      </c>
-      <c r="V207" s="14">
-        <v>31</v>
-      </c>
-      <c r="W207" s="14">
-        <v>31</v>
-      </c>
-      <c r="X207" s="14">
-        <v>31</v>
-      </c>
-      <c r="Y207" s="14">
-        <v>31</v>
-      </c>
-      <c r="Z207" s="14">
-        <v>31</v>
-      </c>
-      <c r="AA207" s="14">
-        <v>31</v>
-      </c>
-      <c r="AB207" s="14">
-        <v>31</v>
-      </c>
-      <c r="AC207" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD207" s="14">
-        <v>31</v>
-      </c>
-      <c r="AE207" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="208" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="14" t="s">
+      <c r="B207" s="13">
+        <v>31</v>
+      </c>
+      <c r="C207" s="13">
+        <v>31</v>
+      </c>
+      <c r="D207" s="13">
+        <v>31</v>
+      </c>
+      <c r="E207" s="13">
+        <v>31</v>
+      </c>
+      <c r="F207" s="13">
+        <v>31</v>
+      </c>
+      <c r="G207" s="13">
+        <v>31</v>
+      </c>
+      <c r="H207" s="13">
+        <v>31</v>
+      </c>
+      <c r="I207" s="13">
+        <v>31</v>
+      </c>
+      <c r="J207" s="13">
+        <v>31</v>
+      </c>
+      <c r="K207" s="13">
+        <v>31</v>
+      </c>
+      <c r="L207" s="13">
+        <v>31</v>
+      </c>
+      <c r="M207" s="13">
+        <v>31</v>
+      </c>
+      <c r="N207" s="13">
+        <v>31</v>
+      </c>
+      <c r="O207" s="13">
+        <v>31</v>
+      </c>
+      <c r="P207" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q207" s="13">
+        <v>31</v>
+      </c>
+      <c r="R207" s="13">
+        <v>31</v>
+      </c>
+      <c r="S207" s="13">
+        <v>31</v>
+      </c>
+      <c r="T207" s="13">
+        <v>31</v>
+      </c>
+      <c r="U207" s="13">
+        <v>31</v>
+      </c>
+      <c r="V207" s="13">
+        <v>31</v>
+      </c>
+      <c r="W207" s="13">
+        <v>31</v>
+      </c>
+      <c r="X207" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y207" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z207" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA207" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB207" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC207" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD207" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE207" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B208" s="14">
-        <v>0</v>
-      </c>
-      <c r="C208" s="14">
-        <v>0</v>
-      </c>
-      <c r="D208" s="14">
-        <v>0</v>
-      </c>
-      <c r="E208" s="14">
-        <v>0</v>
-      </c>
-      <c r="F208" s="14">
-        <v>0</v>
-      </c>
-      <c r="G208" s="14">
-        <v>0</v>
-      </c>
-      <c r="H208" s="14">
-        <v>0</v>
-      </c>
-      <c r="I208" s="14">
-        <v>0</v>
-      </c>
-      <c r="J208" s="14">
-        <v>0</v>
-      </c>
-      <c r="K208" s="14">
-        <v>0</v>
-      </c>
-      <c r="L208" s="14">
-        <v>0</v>
-      </c>
-      <c r="M208" s="14">
-        <v>0</v>
-      </c>
-      <c r="N208" s="14">
-        <v>0</v>
-      </c>
-      <c r="O208" s="14">
-        <v>0</v>
-      </c>
-      <c r="P208" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q208" s="14">
-        <v>0</v>
-      </c>
-      <c r="R208" s="14">
-        <v>0</v>
-      </c>
-      <c r="S208" s="14">
-        <v>0</v>
-      </c>
-      <c r="T208" s="14">
-        <v>0</v>
-      </c>
-      <c r="U208" s="14">
-        <v>0</v>
-      </c>
-      <c r="V208" s="14">
-        <v>0</v>
-      </c>
-      <c r="W208" s="14">
-        <v>0</v>
-      </c>
-      <c r="X208" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y208" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z208" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA208" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB208" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC208" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD208" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE208" s="14">
+      <c r="B208" s="13">
+        <v>0</v>
+      </c>
+      <c r="C208" s="13">
+        <v>0</v>
+      </c>
+      <c r="D208" s="13">
+        <v>0</v>
+      </c>
+      <c r="E208" s="13">
+        <v>0</v>
+      </c>
+      <c r="F208" s="13">
+        <v>0</v>
+      </c>
+      <c r="G208" s="13">
+        <v>0</v>
+      </c>
+      <c r="H208" s="13">
+        <v>0</v>
+      </c>
+      <c r="I208" s="13">
+        <v>0</v>
+      </c>
+      <c r="J208" s="13">
+        <v>0</v>
+      </c>
+      <c r="K208" s="13">
+        <v>0</v>
+      </c>
+      <c r="L208" s="13">
+        <v>0</v>
+      </c>
+      <c r="M208" s="13">
+        <v>0</v>
+      </c>
+      <c r="N208" s="13">
+        <v>0</v>
+      </c>
+      <c r="O208" s="13">
+        <v>0</v>
+      </c>
+      <c r="P208" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="13">
+        <v>0</v>
+      </c>
+      <c r="R208" s="13">
+        <v>0</v>
+      </c>
+      <c r="S208" s="13">
+        <v>0</v>
+      </c>
+      <c r="T208" s="13">
+        <v>0</v>
+      </c>
+      <c r="U208" s="13">
+        <v>0</v>
+      </c>
+      <c r="V208" s="13">
+        <v>0</v>
+      </c>
+      <c r="W208" s="13">
+        <v>0</v>
+      </c>
+      <c r="X208" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6201,11 +6200,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="15" t="s">
+    <row r="228" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B228" s="15">
+      <c r="B228" s="14">
         <v>3</v>
       </c>
     </row>
@@ -6289,94 +6288,94 @@
       <c r="A243" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B243" s="13">
+      <c r="B243" s="12">
         <v>5000</v>
       </c>
-      <c r="C243" s="13">
+      <c r="C243" s="12">
         <v>4990</v>
       </c>
-      <c r="D243" s="13">
+      <c r="D243" s="12">
         <v>4970</v>
       </c>
-      <c r="E243" s="13">
+      <c r="E243" s="12">
         <v>4940</v>
       </c>
-      <c r="F243" s="13">
+      <c r="F243" s="12">
         <v>4900</v>
       </c>
-      <c r="G243" s="13">
+      <c r="G243" s="12">
         <v>4850</v>
       </c>
-      <c r="H243" s="13">
+      <c r="H243" s="12">
         <v>4790</v>
       </c>
-      <c r="I243" s="13">
+      <c r="I243" s="12">
         <v>4720</v>
       </c>
-      <c r="J243" s="13">
+      <c r="J243" s="12">
         <v>4640</v>
       </c>
-      <c r="K243" s="13">
+      <c r="K243" s="12">
         <v>4550</v>
       </c>
-      <c r="L243" s="13">
+      <c r="L243" s="12">
         <v>4450</v>
       </c>
-      <c r="M243" s="13">
+      <c r="M243" s="12">
         <v>4340</v>
       </c>
-      <c r="N243" s="13">
+      <c r="N243" s="12">
         <v>4220</v>
       </c>
-      <c r="O243" s="13">
+      <c r="O243" s="12">
         <v>4090</v>
       </c>
-      <c r="P243" s="13">
+      <c r="P243" s="12">
         <v>3950</v>
       </c>
-      <c r="Q243" s="13">
+      <c r="Q243" s="12">
         <v>3800</v>
       </c>
-      <c r="R243" s="13">
+      <c r="R243" s="12">
         <v>3640</v>
       </c>
-      <c r="S243" s="13">
+      <c r="S243" s="12">
         <v>3470</v>
       </c>
-      <c r="T243" s="13">
+      <c r="T243" s="12">
         <v>3270</v>
       </c>
-      <c r="U243" s="13">
+      <c r="U243" s="12">
         <v>3060</v>
       </c>
-      <c r="V243" s="13">
+      <c r="V243" s="12">
         <v>2840</v>
       </c>
-      <c r="W243" s="13">
+      <c r="W243" s="12">
         <v>2610</v>
       </c>
-      <c r="X243" s="13">
+      <c r="X243" s="12">
         <v>2370</v>
       </c>
-      <c r="Y243" s="13">
+      <c r="Y243" s="12">
         <v>2110</v>
       </c>
-      <c r="Z243" s="13">
+      <c r="Z243" s="12">
         <v>1810</v>
       </c>
-      <c r="AA243" s="13">
+      <c r="AA243" s="12">
         <v>1490</v>
       </c>
-      <c r="AB243" s="13">
+      <c r="AB243" s="12">
         <v>1150</v>
       </c>
-      <c r="AC243" s="13">
+      <c r="AC243" s="12">
         <v>790</v>
       </c>
-      <c r="AD243" s="13">
+      <c r="AD243" s="12">
         <v>410</v>
       </c>
-      <c r="AE243" s="13">
+      <c r="AE243" s="12">
         <v>10</v>
       </c>
     </row>
@@ -6467,483 +6466,483 @@
         <v>70</v>
       </c>
     </row>
-    <row r="256" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="14" t="s">
+    <row r="256" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B256" s="14">
-        <v>1</v>
-      </c>
-      <c r="C256" s="14">
+      <c r="B256" s="13">
+        <v>1</v>
+      </c>
+      <c r="C256" s="13">
         <v>2</v>
       </c>
-      <c r="D256" s="14">
+      <c r="D256" s="13">
         <v>3</v>
       </c>
-      <c r="E256" s="14">
+      <c r="E256" s="13">
         <v>4</v>
       </c>
-      <c r="F256" s="14">
+      <c r="F256" s="13">
         <v>5</v>
       </c>
-      <c r="G256" s="14">
+      <c r="G256" s="13">
         <v>6</v>
       </c>
-      <c r="H256" s="14">
+      <c r="H256" s="13">
         <v>7</v>
       </c>
-      <c r="I256" s="14">
+      <c r="I256" s="13">
         <v>8</v>
       </c>
-      <c r="J256" s="14">
+      <c r="J256" s="13">
         <v>9</v>
       </c>
-      <c r="K256" s="14">
+      <c r="K256" s="13">
         <v>10</v>
       </c>
-      <c r="L256" s="14">
+      <c r="L256" s="13">
         <v>11</v>
       </c>
-      <c r="M256" s="14">
+      <c r="M256" s="13">
         <v>12</v>
       </c>
-      <c r="N256" s="14">
+      <c r="N256" s="13">
         <v>13</v>
       </c>
-      <c r="O256" s="14">
+      <c r="O256" s="13">
         <v>14</v>
       </c>
-      <c r="P256" s="14">
+      <c r="P256" s="13">
         <v>15</v>
       </c>
-      <c r="Q256" s="14">
+      <c r="Q256" s="13">
         <v>16</v>
       </c>
-      <c r="R256" s="14">
+      <c r="R256" s="13">
         <v>17</v>
       </c>
-      <c r="S256" s="14">
+      <c r="S256" s="13">
         <v>18</v>
       </c>
-      <c r="T256" s="14">
+      <c r="T256" s="13">
         <v>19</v>
       </c>
-      <c r="U256" s="14">
+      <c r="U256" s="13">
         <v>20</v>
       </c>
-      <c r="V256" s="14">
+      <c r="V256" s="13">
         <v>21</v>
       </c>
-      <c r="W256" s="14">
+      <c r="W256" s="13">
         <v>22</v>
       </c>
-      <c r="X256" s="14">
+      <c r="X256" s="13">
         <v>23</v>
       </c>
-      <c r="Y256" s="14">
+      <c r="Y256" s="13">
         <v>24</v>
       </c>
-      <c r="Z256" s="14">
+      <c r="Z256" s="13">
         <v>25</v>
       </c>
-      <c r="AA256" s="14">
+      <c r="AA256" s="13">
         <v>26</v>
       </c>
-      <c r="AB256" s="14">
+      <c r="AB256" s="13">
         <v>27</v>
       </c>
-      <c r="AC256" s="14">
+      <c r="AC256" s="13">
         <v>28</v>
       </c>
-      <c r="AD256" s="14">
+      <c r="AD256" s="13">
         <v>29</v>
       </c>
-      <c r="AE256" s="14">
+      <c r="AE256" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="14" t="s">
+    <row r="257" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="14" t="s">
+    <row r="258" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B258" s="14">
+      <c r="B258" s="13">
         <v>100116</v>
       </c>
-      <c r="C258" s="14">
+      <c r="C258" s="13">
         <v>100117</v>
       </c>
-      <c r="D258" s="14">
+      <c r="D258" s="13">
         <v>100118</v>
       </c>
-      <c r="E258" s="14">
+      <c r="E258" s="13">
         <v>100119</v>
       </c>
-      <c r="F258" s="14">
+      <c r="F258" s="13">
         <v>100120</v>
       </c>
-      <c r="G258" s="14">
+      <c r="G258" s="13">
         <v>100121</v>
       </c>
-      <c r="H258" s="14">
+      <c r="H258" s="13">
         <v>100122</v>
       </c>
-      <c r="I258" s="14">
+      <c r="I258" s="13">
         <v>100123</v>
       </c>
-      <c r="J258" s="14">
+      <c r="J258" s="13">
         <v>100124</v>
       </c>
-      <c r="K258" s="14">
+      <c r="K258" s="13">
         <v>100125</v>
       </c>
-      <c r="L258" s="14">
+      <c r="L258" s="13">
         <v>100126</v>
       </c>
-      <c r="M258" s="14">
+      <c r="M258" s="13">
         <v>100127</v>
       </c>
-      <c r="N258" s="14">
+      <c r="N258" s="13">
         <v>100128</v>
       </c>
-      <c r="O258" s="14">
+      <c r="O258" s="13">
         <v>100129</v>
       </c>
-      <c r="P258" s="14">
+      <c r="P258" s="13">
         <v>100130</v>
       </c>
-      <c r="Q258" s="14">
+      <c r="Q258" s="13">
         <v>100131</v>
       </c>
-      <c r="R258" s="14">
+      <c r="R258" s="13">
         <v>100132</v>
       </c>
-      <c r="S258" s="14">
+      <c r="S258" s="13">
         <v>100133</v>
       </c>
-      <c r="T258" s="14">
+      <c r="T258" s="13">
         <v>100134</v>
       </c>
-      <c r="U258" s="14">
+      <c r="U258" s="13">
         <v>100135</v>
       </c>
-      <c r="V258" s="14">
+      <c r="V258" s="13">
         <v>100136</v>
       </c>
-      <c r="W258" s="14">
+      <c r="W258" s="13">
         <v>100137</v>
       </c>
-      <c r="X258" s="14">
+      <c r="X258" s="13">
         <v>100138</v>
       </c>
-      <c r="Y258" s="14">
+      <c r="Y258" s="13">
         <v>100139</v>
       </c>
-      <c r="Z258" s="14">
+      <c r="Z258" s="13">
         <v>100140</v>
       </c>
-      <c r="AA258" s="14">
+      <c r="AA258" s="13">
         <v>100141</v>
       </c>
-      <c r="AB258" s="14">
+      <c r="AB258" s="13">
         <v>100142</v>
       </c>
-      <c r="AC258" s="14">
+      <c r="AC258" s="13">
         <v>100143</v>
       </c>
-      <c r="AD258" s="14">
+      <c r="AD258" s="13">
         <v>100144</v>
       </c>
-      <c r="AE258" s="14">
+      <c r="AE258" s="13">
         <v>100145</v>
       </c>
     </row>
-    <row r="259" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="14" t="s">
+    <row r="259" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B259" s="14">
-        <v>1</v>
-      </c>
-      <c r="C259" s="14">
-        <v>1</v>
-      </c>
-      <c r="D259" s="14">
-        <v>1</v>
-      </c>
-      <c r="E259" s="14">
-        <v>1</v>
-      </c>
-      <c r="F259" s="14">
-        <v>1</v>
-      </c>
-      <c r="G259" s="14">
-        <v>1</v>
-      </c>
-      <c r="H259" s="14">
-        <v>1</v>
-      </c>
-      <c r="I259" s="14">
-        <v>1</v>
-      </c>
-      <c r="J259" s="14">
-        <v>1</v>
-      </c>
-      <c r="K259" s="14">
-        <v>1</v>
-      </c>
-      <c r="L259" s="14">
-        <v>1</v>
-      </c>
-      <c r="M259" s="14">
-        <v>1</v>
-      </c>
-      <c r="N259" s="14">
-        <v>1</v>
-      </c>
-      <c r="O259" s="14">
-        <v>1</v>
-      </c>
-      <c r="P259" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q259" s="14">
-        <v>1</v>
-      </c>
-      <c r="R259" s="14">
-        <v>1</v>
-      </c>
-      <c r="S259" s="14">
-        <v>1</v>
-      </c>
-      <c r="T259" s="14">
-        <v>1</v>
-      </c>
-      <c r="U259" s="14">
-        <v>1</v>
-      </c>
-      <c r="V259" s="14">
-        <v>1</v>
-      </c>
-      <c r="W259" s="14">
-        <v>1</v>
-      </c>
-      <c r="X259" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y259" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z259" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA259" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB259" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC259" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD259" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE259" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="14" t="s">
+      <c r="B259" s="13">
+        <v>1</v>
+      </c>
+      <c r="C259" s="13">
+        <v>1</v>
+      </c>
+      <c r="D259" s="13">
+        <v>1</v>
+      </c>
+      <c r="E259" s="13">
+        <v>1</v>
+      </c>
+      <c r="F259" s="13">
+        <v>1</v>
+      </c>
+      <c r="G259" s="13">
+        <v>1</v>
+      </c>
+      <c r="H259" s="13">
+        <v>1</v>
+      </c>
+      <c r="I259" s="13">
+        <v>1</v>
+      </c>
+      <c r="J259" s="13">
+        <v>1</v>
+      </c>
+      <c r="K259" s="13">
+        <v>1</v>
+      </c>
+      <c r="L259" s="13">
+        <v>1</v>
+      </c>
+      <c r="M259" s="13">
+        <v>1</v>
+      </c>
+      <c r="N259" s="13">
+        <v>1</v>
+      </c>
+      <c r="O259" s="13">
+        <v>1</v>
+      </c>
+      <c r="P259" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q259" s="13">
+        <v>1</v>
+      </c>
+      <c r="R259" s="13">
+        <v>1</v>
+      </c>
+      <c r="S259" s="13">
+        <v>1</v>
+      </c>
+      <c r="T259" s="13">
+        <v>1</v>
+      </c>
+      <c r="U259" s="13">
+        <v>1</v>
+      </c>
+      <c r="V259" s="13">
+        <v>1</v>
+      </c>
+      <c r="W259" s="13">
+        <v>1</v>
+      </c>
+      <c r="X259" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y259" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z259" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA259" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB259" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC259" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD259" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE259" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B260" s="14">
-        <v>31</v>
-      </c>
-      <c r="C260" s="14">
-        <v>31</v>
-      </c>
-      <c r="D260" s="14">
-        <v>31</v>
-      </c>
-      <c r="E260" s="14">
-        <v>31</v>
-      </c>
-      <c r="F260" s="14">
-        <v>31</v>
-      </c>
-      <c r="G260" s="14">
-        <v>31</v>
-      </c>
-      <c r="H260" s="14">
-        <v>31</v>
-      </c>
-      <c r="I260" s="14">
-        <v>31</v>
-      </c>
-      <c r="J260" s="14">
-        <v>31</v>
-      </c>
-      <c r="K260" s="14">
-        <v>31</v>
-      </c>
-      <c r="L260" s="14">
-        <v>31</v>
-      </c>
-      <c r="M260" s="14">
-        <v>31</v>
-      </c>
-      <c r="N260" s="14">
-        <v>31</v>
-      </c>
-      <c r="O260" s="14">
-        <v>31</v>
-      </c>
-      <c r="P260" s="14">
-        <v>31</v>
-      </c>
-      <c r="Q260" s="14">
-        <v>31</v>
-      </c>
-      <c r="R260" s="14">
-        <v>31</v>
-      </c>
-      <c r="S260" s="14">
-        <v>31</v>
-      </c>
-      <c r="T260" s="14">
-        <v>31</v>
-      </c>
-      <c r="U260" s="14">
-        <v>31</v>
-      </c>
-      <c r="V260" s="14">
-        <v>31</v>
-      </c>
-      <c r="W260" s="14">
-        <v>31</v>
-      </c>
-      <c r="X260" s="14">
-        <v>31</v>
-      </c>
-      <c r="Y260" s="14">
-        <v>31</v>
-      </c>
-      <c r="Z260" s="14">
-        <v>31</v>
-      </c>
-      <c r="AA260" s="14">
-        <v>31</v>
-      </c>
-      <c r="AB260" s="14">
-        <v>31</v>
-      </c>
-      <c r="AC260" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD260" s="14">
-        <v>31</v>
-      </c>
-      <c r="AE260" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="261" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="14" t="s">
+      <c r="B260" s="13">
+        <v>31</v>
+      </c>
+      <c r="C260" s="13">
+        <v>31</v>
+      </c>
+      <c r="D260" s="13">
+        <v>31</v>
+      </c>
+      <c r="E260" s="13">
+        <v>31</v>
+      </c>
+      <c r="F260" s="13">
+        <v>31</v>
+      </c>
+      <c r="G260" s="13">
+        <v>31</v>
+      </c>
+      <c r="H260" s="13">
+        <v>31</v>
+      </c>
+      <c r="I260" s="13">
+        <v>31</v>
+      </c>
+      <c r="J260" s="13">
+        <v>31</v>
+      </c>
+      <c r="K260" s="13">
+        <v>31</v>
+      </c>
+      <c r="L260" s="13">
+        <v>31</v>
+      </c>
+      <c r="M260" s="13">
+        <v>31</v>
+      </c>
+      <c r="N260" s="13">
+        <v>31</v>
+      </c>
+      <c r="O260" s="13">
+        <v>31</v>
+      </c>
+      <c r="P260" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q260" s="13">
+        <v>31</v>
+      </c>
+      <c r="R260" s="13">
+        <v>31</v>
+      </c>
+      <c r="S260" s="13">
+        <v>31</v>
+      </c>
+      <c r="T260" s="13">
+        <v>31</v>
+      </c>
+      <c r="U260" s="13">
+        <v>31</v>
+      </c>
+      <c r="V260" s="13">
+        <v>31</v>
+      </c>
+      <c r="W260" s="13">
+        <v>31</v>
+      </c>
+      <c r="X260" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y260" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z260" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA260" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB260" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC260" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD260" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE260" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B261" s="14">
-        <v>0</v>
-      </c>
-      <c r="C261" s="14">
-        <v>0</v>
-      </c>
-      <c r="D261" s="14">
-        <v>0</v>
-      </c>
-      <c r="E261" s="14">
-        <v>0</v>
-      </c>
-      <c r="F261" s="14">
-        <v>0</v>
-      </c>
-      <c r="G261" s="14">
-        <v>0</v>
-      </c>
-      <c r="H261" s="14">
-        <v>0</v>
-      </c>
-      <c r="I261" s="14">
-        <v>0</v>
-      </c>
-      <c r="J261" s="14">
-        <v>0</v>
-      </c>
-      <c r="K261" s="14">
-        <v>0</v>
-      </c>
-      <c r="L261" s="14">
-        <v>0</v>
-      </c>
-      <c r="M261" s="14">
-        <v>0</v>
-      </c>
-      <c r="N261" s="14">
-        <v>0</v>
-      </c>
-      <c r="O261" s="14">
-        <v>0</v>
-      </c>
-      <c r="P261" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q261" s="14">
-        <v>0</v>
-      </c>
-      <c r="R261" s="14">
-        <v>0</v>
-      </c>
-      <c r="S261" s="14">
-        <v>0</v>
-      </c>
-      <c r="T261" s="14">
-        <v>0</v>
-      </c>
-      <c r="U261" s="14">
-        <v>0</v>
-      </c>
-      <c r="V261" s="14">
-        <v>0</v>
-      </c>
-      <c r="W261" s="14">
-        <v>0</v>
-      </c>
-      <c r="X261" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y261" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z261" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA261" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB261" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC261" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD261" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE261" s="14">
+      <c r="B261" s="13">
+        <v>0</v>
+      </c>
+      <c r="C261" s="13">
+        <v>0</v>
+      </c>
+      <c r="D261" s="13">
+        <v>0</v>
+      </c>
+      <c r="E261" s="13">
+        <v>0</v>
+      </c>
+      <c r="F261" s="13">
+        <v>0</v>
+      </c>
+      <c r="G261" s="13">
+        <v>0</v>
+      </c>
+      <c r="H261" s="13">
+        <v>0</v>
+      </c>
+      <c r="I261" s="13">
+        <v>0</v>
+      </c>
+      <c r="J261" s="13">
+        <v>0</v>
+      </c>
+      <c r="K261" s="13">
+        <v>0</v>
+      </c>
+      <c r="L261" s="13">
+        <v>0</v>
+      </c>
+      <c r="M261" s="13">
+        <v>0</v>
+      </c>
+      <c r="N261" s="13">
+        <v>0</v>
+      </c>
+      <c r="O261" s="13">
+        <v>0</v>
+      </c>
+      <c r="P261" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="13">
+        <v>0</v>
+      </c>
+      <c r="R261" s="13">
+        <v>0</v>
+      </c>
+      <c r="S261" s="13">
+        <v>0</v>
+      </c>
+      <c r="T261" s="13">
+        <v>0</v>
+      </c>
+      <c r="U261" s="13">
+        <v>0</v>
+      </c>
+      <c r="V261" s="13">
+        <v>0</v>
+      </c>
+      <c r="W261" s="13">
+        <v>0</v>
+      </c>
+      <c r="X261" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE261" s="13">
         <v>0</v>
       </c>
     </row>
@@ -7346,483 +7345,483 @@
         <v>70</v>
       </c>
     </row>
-    <row r="288" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="14" t="s">
+    <row r="288" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B288" s="14">
-        <v>1</v>
-      </c>
-      <c r="C288" s="14">
+      <c r="B288" s="13">
+        <v>1</v>
+      </c>
+      <c r="C288" s="13">
         <v>2</v>
       </c>
-      <c r="D288" s="14">
+      <c r="D288" s="13">
         <v>3</v>
       </c>
-      <c r="E288" s="14">
+      <c r="E288" s="13">
         <v>4</v>
       </c>
-      <c r="F288" s="14">
+      <c r="F288" s="13">
         <v>5</v>
       </c>
-      <c r="G288" s="14">
+      <c r="G288" s="13">
         <v>6</v>
       </c>
-      <c r="H288" s="14">
+      <c r="H288" s="13">
         <v>7</v>
       </c>
-      <c r="I288" s="14">
+      <c r="I288" s="13">
         <v>8</v>
       </c>
-      <c r="J288" s="14">
+      <c r="J288" s="13">
         <v>9</v>
       </c>
-      <c r="K288" s="14">
+      <c r="K288" s="13">
         <v>10</v>
       </c>
-      <c r="L288" s="14">
+      <c r="L288" s="13">
         <v>11</v>
       </c>
-      <c r="M288" s="14">
+      <c r="M288" s="13">
         <v>12</v>
       </c>
-      <c r="N288" s="14">
+      <c r="N288" s="13">
         <v>13</v>
       </c>
-      <c r="O288" s="14">
+      <c r="O288" s="13">
         <v>14</v>
       </c>
-      <c r="P288" s="14">
+      <c r="P288" s="13">
         <v>15</v>
       </c>
-      <c r="Q288" s="14">
+      <c r="Q288" s="13">
         <v>16</v>
       </c>
-      <c r="R288" s="14">
+      <c r="R288" s="13">
         <v>17</v>
       </c>
-      <c r="S288" s="14">
+      <c r="S288" s="13">
         <v>18</v>
       </c>
-      <c r="T288" s="14">
+      <c r="T288" s="13">
         <v>19</v>
       </c>
-      <c r="U288" s="14">
+      <c r="U288" s="13">
         <v>20</v>
       </c>
-      <c r="V288" s="14">
+      <c r="V288" s="13">
         <v>21</v>
       </c>
-      <c r="W288" s="14">
+      <c r="W288" s="13">
         <v>22</v>
       </c>
-      <c r="X288" s="14">
+      <c r="X288" s="13">
         <v>23</v>
       </c>
-      <c r="Y288" s="14">
+      <c r="Y288" s="13">
         <v>24</v>
       </c>
-      <c r="Z288" s="14">
+      <c r="Z288" s="13">
         <v>25</v>
       </c>
-      <c r="AA288" s="14">
+      <c r="AA288" s="13">
         <v>26</v>
       </c>
-      <c r="AB288" s="14">
+      <c r="AB288" s="13">
         <v>27</v>
       </c>
-      <c r="AC288" s="14">
+      <c r="AC288" s="13">
         <v>28</v>
       </c>
-      <c r="AD288" s="14">
+      <c r="AD288" s="13">
         <v>29</v>
       </c>
-      <c r="AE288" s="14">
+      <c r="AE288" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="14" t="s">
+    <row r="289" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="14" t="s">
+    <row r="290" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B290" s="14">
+      <c r="B290" s="13">
         <v>100206</v>
       </c>
-      <c r="C290" s="14">
+      <c r="C290" s="13">
         <v>100207</v>
       </c>
-      <c r="D290" s="14">
+      <c r="D290" s="13">
         <v>100208</v>
       </c>
-      <c r="E290" s="14">
+      <c r="E290" s="13">
         <v>100209</v>
       </c>
-      <c r="F290" s="14">
+      <c r="F290" s="13">
         <v>100210</v>
       </c>
-      <c r="G290" s="14">
+      <c r="G290" s="13">
         <v>100211</v>
       </c>
-      <c r="H290" s="14">
+      <c r="H290" s="13">
         <v>100212</v>
       </c>
-      <c r="I290" s="14">
+      <c r="I290" s="13">
         <v>100213</v>
       </c>
-      <c r="J290" s="14">
+      <c r="J290" s="13">
         <v>100214</v>
       </c>
-      <c r="K290" s="14">
+      <c r="K290" s="13">
         <v>100215</v>
       </c>
-      <c r="L290" s="14">
+      <c r="L290" s="13">
         <v>100216</v>
       </c>
-      <c r="M290" s="14">
+      <c r="M290" s="13">
         <v>100217</v>
       </c>
-      <c r="N290" s="14">
+      <c r="N290" s="13">
         <v>100218</v>
       </c>
-      <c r="O290" s="14">
+      <c r="O290" s="13">
         <v>100219</v>
       </c>
-      <c r="P290" s="14">
+      <c r="P290" s="13">
         <v>100220</v>
       </c>
-      <c r="Q290" s="14">
+      <c r="Q290" s="13">
         <v>100221</v>
       </c>
-      <c r="R290" s="14">
+      <c r="R290" s="13">
         <v>100222</v>
       </c>
-      <c r="S290" s="14">
+      <c r="S290" s="13">
         <v>100223</v>
       </c>
-      <c r="T290" s="14">
+      <c r="T290" s="13">
         <v>100224</v>
       </c>
-      <c r="U290" s="14">
+      <c r="U290" s="13">
         <v>100225</v>
       </c>
-      <c r="V290" s="14">
+      <c r="V290" s="13">
         <v>100226</v>
       </c>
-      <c r="W290" s="14">
+      <c r="W290" s="13">
         <v>100227</v>
       </c>
-      <c r="X290" s="14">
+      <c r="X290" s="13">
         <v>100228</v>
       </c>
-      <c r="Y290" s="14">
+      <c r="Y290" s="13">
         <v>100229</v>
       </c>
-      <c r="Z290" s="14">
+      <c r="Z290" s="13">
         <v>100230</v>
       </c>
-      <c r="AA290" s="14">
+      <c r="AA290" s="13">
         <v>100231</v>
       </c>
-      <c r="AB290" s="14">
+      <c r="AB290" s="13">
         <v>100232</v>
       </c>
-      <c r="AC290" s="14">
+      <c r="AC290" s="13">
         <v>100233</v>
       </c>
-      <c r="AD290" s="14">
+      <c r="AD290" s="13">
         <v>100234</v>
       </c>
-      <c r="AE290" s="14">
+      <c r="AE290" s="13">
         <v>100235</v>
       </c>
     </row>
-    <row r="291" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="14" t="s">
+    <row r="291" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B291" s="14">
-        <v>1</v>
-      </c>
-      <c r="C291" s="14">
-        <v>1</v>
-      </c>
-      <c r="D291" s="14">
-        <v>1</v>
-      </c>
-      <c r="E291" s="14">
-        <v>1</v>
-      </c>
-      <c r="F291" s="14">
-        <v>1</v>
-      </c>
-      <c r="G291" s="14">
-        <v>1</v>
-      </c>
-      <c r="H291" s="14">
-        <v>1</v>
-      </c>
-      <c r="I291" s="14">
-        <v>1</v>
-      </c>
-      <c r="J291" s="14">
-        <v>1</v>
-      </c>
-      <c r="K291" s="14">
-        <v>1</v>
-      </c>
-      <c r="L291" s="14">
-        <v>1</v>
-      </c>
-      <c r="M291" s="14">
-        <v>1</v>
-      </c>
-      <c r="N291" s="14">
-        <v>1</v>
-      </c>
-      <c r="O291" s="14">
-        <v>1</v>
-      </c>
-      <c r="P291" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q291" s="14">
-        <v>1</v>
-      </c>
-      <c r="R291" s="14">
-        <v>1</v>
-      </c>
-      <c r="S291" s="14">
-        <v>1</v>
-      </c>
-      <c r="T291" s="14">
-        <v>1</v>
-      </c>
-      <c r="U291" s="14">
-        <v>1</v>
-      </c>
-      <c r="V291" s="14">
-        <v>1</v>
-      </c>
-      <c r="W291" s="14">
-        <v>1</v>
-      </c>
-      <c r="X291" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y291" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z291" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA291" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB291" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC291" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD291" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE291" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="14" t="s">
+      <c r="B291" s="13">
+        <v>1</v>
+      </c>
+      <c r="C291" s="13">
+        <v>1</v>
+      </c>
+      <c r="D291" s="13">
+        <v>1</v>
+      </c>
+      <c r="E291" s="13">
+        <v>1</v>
+      </c>
+      <c r="F291" s="13">
+        <v>1</v>
+      </c>
+      <c r="G291" s="13">
+        <v>1</v>
+      </c>
+      <c r="H291" s="13">
+        <v>1</v>
+      </c>
+      <c r="I291" s="13">
+        <v>1</v>
+      </c>
+      <c r="J291" s="13">
+        <v>1</v>
+      </c>
+      <c r="K291" s="13">
+        <v>1</v>
+      </c>
+      <c r="L291" s="13">
+        <v>1</v>
+      </c>
+      <c r="M291" s="13">
+        <v>1</v>
+      </c>
+      <c r="N291" s="13">
+        <v>1</v>
+      </c>
+      <c r="O291" s="13">
+        <v>1</v>
+      </c>
+      <c r="P291" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="13">
+        <v>1</v>
+      </c>
+      <c r="R291" s="13">
+        <v>1</v>
+      </c>
+      <c r="S291" s="13">
+        <v>1</v>
+      </c>
+      <c r="T291" s="13">
+        <v>1</v>
+      </c>
+      <c r="U291" s="13">
+        <v>1</v>
+      </c>
+      <c r="V291" s="13">
+        <v>1</v>
+      </c>
+      <c r="W291" s="13">
+        <v>1</v>
+      </c>
+      <c r="X291" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y291" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z291" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA291" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB291" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC291" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD291" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE291" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B292" s="14">
-        <v>31</v>
-      </c>
-      <c r="C292" s="14">
-        <v>31</v>
-      </c>
-      <c r="D292" s="14">
-        <v>31</v>
-      </c>
-      <c r="E292" s="14">
-        <v>31</v>
-      </c>
-      <c r="F292" s="14">
-        <v>31</v>
-      </c>
-      <c r="G292" s="14">
-        <v>31</v>
-      </c>
-      <c r="H292" s="14">
-        <v>31</v>
-      </c>
-      <c r="I292" s="14">
-        <v>31</v>
-      </c>
-      <c r="J292" s="14">
-        <v>31</v>
-      </c>
-      <c r="K292" s="14">
-        <v>31</v>
-      </c>
-      <c r="L292" s="14">
-        <v>31</v>
-      </c>
-      <c r="M292" s="14">
-        <v>31</v>
-      </c>
-      <c r="N292" s="14">
-        <v>31</v>
-      </c>
-      <c r="O292" s="14">
-        <v>31</v>
-      </c>
-      <c r="P292" s="14">
-        <v>31</v>
-      </c>
-      <c r="Q292" s="14">
-        <v>31</v>
-      </c>
-      <c r="R292" s="14">
-        <v>31</v>
-      </c>
-      <c r="S292" s="14">
-        <v>31</v>
-      </c>
-      <c r="T292" s="14">
-        <v>31</v>
-      </c>
-      <c r="U292" s="14">
-        <v>31</v>
-      </c>
-      <c r="V292" s="14">
-        <v>31</v>
-      </c>
-      <c r="W292" s="14">
-        <v>31</v>
-      </c>
-      <c r="X292" s="14">
-        <v>31</v>
-      </c>
-      <c r="Y292" s="14">
-        <v>31</v>
-      </c>
-      <c r="Z292" s="14">
-        <v>31</v>
-      </c>
-      <c r="AA292" s="14">
-        <v>31</v>
-      </c>
-      <c r="AB292" s="14">
-        <v>31</v>
-      </c>
-      <c r="AC292" s="14">
-        <v>31</v>
-      </c>
-      <c r="AD292" s="14">
-        <v>31</v>
-      </c>
-      <c r="AE292" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="293" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="14" t="s">
+      <c r="B292" s="13">
+        <v>31</v>
+      </c>
+      <c r="C292" s="13">
+        <v>31</v>
+      </c>
+      <c r="D292" s="13">
+        <v>31</v>
+      </c>
+      <c r="E292" s="13">
+        <v>31</v>
+      </c>
+      <c r="F292" s="13">
+        <v>31</v>
+      </c>
+      <c r="G292" s="13">
+        <v>31</v>
+      </c>
+      <c r="H292" s="13">
+        <v>31</v>
+      </c>
+      <c r="I292" s="13">
+        <v>31</v>
+      </c>
+      <c r="J292" s="13">
+        <v>31</v>
+      </c>
+      <c r="K292" s="13">
+        <v>31</v>
+      </c>
+      <c r="L292" s="13">
+        <v>31</v>
+      </c>
+      <c r="M292" s="13">
+        <v>31</v>
+      </c>
+      <c r="N292" s="13">
+        <v>31</v>
+      </c>
+      <c r="O292" s="13">
+        <v>31</v>
+      </c>
+      <c r="P292" s="13">
+        <v>31</v>
+      </c>
+      <c r="Q292" s="13">
+        <v>31</v>
+      </c>
+      <c r="R292" s="13">
+        <v>31</v>
+      </c>
+      <c r="S292" s="13">
+        <v>31</v>
+      </c>
+      <c r="T292" s="13">
+        <v>31</v>
+      </c>
+      <c r="U292" s="13">
+        <v>31</v>
+      </c>
+      <c r="V292" s="13">
+        <v>31</v>
+      </c>
+      <c r="W292" s="13">
+        <v>31</v>
+      </c>
+      <c r="X292" s="13">
+        <v>31</v>
+      </c>
+      <c r="Y292" s="13">
+        <v>31</v>
+      </c>
+      <c r="Z292" s="13">
+        <v>31</v>
+      </c>
+      <c r="AA292" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB292" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC292" s="13">
+        <v>31</v>
+      </c>
+      <c r="AD292" s="13">
+        <v>31</v>
+      </c>
+      <c r="AE292" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B293" s="14">
-        <v>0</v>
-      </c>
-      <c r="C293" s="14">
-        <v>0</v>
-      </c>
-      <c r="D293" s="14">
-        <v>0</v>
-      </c>
-      <c r="E293" s="14">
-        <v>0</v>
-      </c>
-      <c r="F293" s="14">
-        <v>0</v>
-      </c>
-      <c r="G293" s="14">
-        <v>0</v>
-      </c>
-      <c r="H293" s="14">
-        <v>0</v>
-      </c>
-      <c r="I293" s="14">
-        <v>0</v>
-      </c>
-      <c r="J293" s="14">
-        <v>0</v>
-      </c>
-      <c r="K293" s="14">
-        <v>0</v>
-      </c>
-      <c r="L293" s="14">
-        <v>0</v>
-      </c>
-      <c r="M293" s="14">
-        <v>0</v>
-      </c>
-      <c r="N293" s="14">
-        <v>0</v>
-      </c>
-      <c r="O293" s="14">
-        <v>0</v>
-      </c>
-      <c r="P293" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q293" s="14">
-        <v>0</v>
-      </c>
-      <c r="R293" s="14">
-        <v>0</v>
-      </c>
-      <c r="S293" s="14">
-        <v>0</v>
-      </c>
-      <c r="T293" s="14">
-        <v>0</v>
-      </c>
-      <c r="U293" s="14">
-        <v>0</v>
-      </c>
-      <c r="V293" s="14">
-        <v>0</v>
-      </c>
-      <c r="W293" s="14">
-        <v>0</v>
-      </c>
-      <c r="X293" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y293" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z293" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA293" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB293" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC293" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD293" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE293" s="14">
+      <c r="B293" s="13">
+        <v>0</v>
+      </c>
+      <c r="C293" s="13">
+        <v>0</v>
+      </c>
+      <c r="D293" s="13">
+        <v>0</v>
+      </c>
+      <c r="E293" s="13">
+        <v>0</v>
+      </c>
+      <c r="F293" s="13">
+        <v>0</v>
+      </c>
+      <c r="G293" s="13">
+        <v>0</v>
+      </c>
+      <c r="H293" s="13">
+        <v>0</v>
+      </c>
+      <c r="I293" s="13">
+        <v>0</v>
+      </c>
+      <c r="J293" s="13">
+        <v>0</v>
+      </c>
+      <c r="K293" s="13">
+        <v>0</v>
+      </c>
+      <c r="L293" s="13">
+        <v>0</v>
+      </c>
+      <c r="M293" s="13">
+        <v>0</v>
+      </c>
+      <c r="N293" s="13">
+        <v>0</v>
+      </c>
+      <c r="O293" s="13">
+        <v>0</v>
+      </c>
+      <c r="P293" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q293" s="13">
+        <v>0</v>
+      </c>
+      <c r="R293" s="13">
+        <v>0</v>
+      </c>
+      <c r="S293" s="13">
+        <v>0</v>
+      </c>
+      <c r="T293" s="13">
+        <v>0</v>
+      </c>
+      <c r="U293" s="13">
+        <v>0</v>
+      </c>
+      <c r="V293" s="13">
+        <v>0</v>
+      </c>
+      <c r="W293" s="13">
+        <v>0</v>
+      </c>
+      <c r="X293" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y293" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z293" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA293" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC293" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="13">
         <v>0</v>
       </c>
     </row>
@@ -8108,7 +8107,7 @@
       </c>
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A309" s="17" t="s">
+      <c r="A309" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D309">
@@ -8128,7 +8127,7 @@
       </c>
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A310" s="17" t="s">
+      <c r="A310" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D310">
@@ -8148,7 +8147,7 @@
       </c>
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A311" s="17" t="s">
+      <c r="A311" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D311">
@@ -8168,15 +8167,15 @@
       </c>
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A312" s="17"/>
+      <c r="A312" s="16"/>
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A313" s="17" t="s">
+      <c r="A313" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A314" s="17" t="s">
+      <c r="A314" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B314" s="6" t="s">
@@ -8184,7 +8183,7 @@
       </c>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A315" s="17" t="s">
+      <c r="A315" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -8192,7 +8191,7 @@
       </c>
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A316" s="17" t="s">
+      <c r="A316" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B316">
@@ -8200,7 +8199,7 @@
       </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A317" s="17" t="s">
+      <c r="A317" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B317" s="6" t="s">
@@ -8208,7 +8207,7 @@
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A318" s="17" t="s">
+      <c r="A318" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B318" s="6" t="s">
@@ -8216,10 +8215,10 @@
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A319" s="17"/>
+      <c r="A319" s="16"/>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A320" s="17" t="s">
+      <c r="A320" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B320" s="6" t="s">
@@ -8227,10 +8226,10 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="17"/>
+      <c r="A321" s="16"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="17" t="s">
+      <c r="A322" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B322" s="6" t="s">
@@ -8238,10 +8237,10 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="17"/>
+      <c r="A323" s="16"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="17" t="s">
+      <c r="A324" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B324" s="6" t="s">
@@ -8249,25 +8248,25 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="17"/>
+      <c r="A325" s="16"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="17" t="s">
+      <c r="A326" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="17" t="s">
+      <c r="A327" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="17" t="s">
+      <c r="A328" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="17" t="s">
+      <c r="A329" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8275,259 +8274,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F55A19F-6517-D140-AE69-402E6EE43A55}">
-  <dimension ref="A1:AF30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AF1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="12">
-        <v>5000</v>
-      </c>
-      <c r="C1" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D1" s="12">
-        <v>4990</v>
-      </c>
-      <c r="E1" s="12">
-        <v>4970</v>
-      </c>
-      <c r="F1" s="12">
-        <v>4940</v>
-      </c>
-      <c r="G1" s="12">
-        <v>4900</v>
-      </c>
-      <c r="H1" s="12">
-        <v>4850</v>
-      </c>
-      <c r="I1" s="12">
-        <v>4790</v>
-      </c>
-      <c r="J1" s="12">
-        <v>4720</v>
-      </c>
-      <c r="K1" s="12">
-        <v>4640</v>
-      </c>
-      <c r="L1" s="12">
-        <v>4550</v>
-      </c>
-      <c r="M1" s="12">
-        <v>4450</v>
-      </c>
-      <c r="N1" s="12">
-        <v>4340</v>
-      </c>
-      <c r="O1" s="12">
-        <v>4220</v>
-      </c>
-      <c r="P1" s="12">
-        <v>4090</v>
-      </c>
-      <c r="Q1" s="12">
-        <v>3950</v>
-      </c>
-      <c r="R1" s="12">
-        <v>3800</v>
-      </c>
-      <c r="S1" s="12">
-        <v>3640</v>
-      </c>
-      <c r="T1" s="12">
-        <v>3470</v>
-      </c>
-      <c r="U1" s="12">
-        <v>3270</v>
-      </c>
-      <c r="V1" s="12">
-        <v>3060</v>
-      </c>
-      <c r="W1" s="12">
-        <v>2840</v>
-      </c>
-      <c r="X1" s="12">
-        <v>2610</v>
-      </c>
-      <c r="Y1" s="12">
-        <v>2370</v>
-      </c>
-      <c r="Z1" s="12">
-        <v>2110</v>
-      </c>
-      <c r="AA1" s="12">
-        <v>1810</v>
-      </c>
-      <c r="AB1" s="12">
-        <v>1490</v>
-      </c>
-      <c r="AC1" s="12">
-        <v>1150</v>
-      </c>
-      <c r="AD1" s="12">
-        <v>790</v>
-      </c>
-      <c r="AE1" s="12">
-        <v>410</v>
-      </c>
-      <c r="AF1" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>4990</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>4970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>4940</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>4790</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>4720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>4640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>4220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TrickOrTreat/e2j.xlsx
+++ b/TrickOrTreat/e2j.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/TrickOrTreat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C1540-53C3-384A-84CD-C656C9DC0D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892C4C9-2F45-234E-BB48-70BE673F5164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,7 +883,7 @@
   <dimension ref="A1:BC329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TrickOrTreat/e2j.xlsx
+++ b/TrickOrTreat/e2j.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/TrickOrTreat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892C4C9-2F45-234E-BB48-70BE673F5164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05ED141-91C2-B647-BE9A-26AE6F10E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -883,7 +884,7 @@
   <dimension ref="A1:BC329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3540,12 +3541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -3585,35 +3586,116 @@
         <v>208005</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102">
-        <v>1110022</v>
+        <v>1110098</v>
       </c>
       <c r="C102">
-        <v>1110022</v>
+        <v>341016</v>
       </c>
       <c r="D102">
-        <v>1110005</v>
+        <v>1110095</v>
       </c>
       <c r="E102">
-        <v>1110023</v>
+        <v>341016</v>
       </c>
       <c r="F102">
-        <v>1130001</v>
+        <v>341003</v>
       </c>
       <c r="G102">
-        <v>1130002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1110089</v>
+      </c>
+      <c r="H102">
+        <v>1130028</v>
+      </c>
+      <c r="I102">
+        <v>341017</v>
+      </c>
+      <c r="J102">
+        <v>341002</v>
+      </c>
+      <c r="K102">
+        <v>1120021</v>
+      </c>
+      <c r="L102">
+        <v>341012</v>
+      </c>
+      <c r="M102">
+        <v>341004</v>
+      </c>
+      <c r="N102">
+        <v>341015</v>
+      </c>
+      <c r="O102">
+        <v>1120023</v>
+      </c>
+      <c r="P102">
+        <v>1130025</v>
+      </c>
+      <c r="Q102">
+        <v>341011</v>
+      </c>
+      <c r="R102">
+        <v>1110087</v>
+      </c>
+      <c r="S102">
+        <v>341001</v>
+      </c>
+      <c r="T102">
+        <v>341014</v>
+      </c>
+      <c r="U102">
+        <v>1110085</v>
+      </c>
+      <c r="V102">
+        <v>341009</v>
+      </c>
+      <c r="W102">
+        <v>1110082</v>
+      </c>
+      <c r="X102">
+        <v>341010</v>
+      </c>
+      <c r="Y102">
+        <v>1110084</v>
+      </c>
+      <c r="Z102">
+        <v>1130026</v>
+      </c>
+      <c r="AA102">
+        <v>1130024</v>
+      </c>
+      <c r="AB102">
+        <v>341008</v>
+      </c>
+      <c r="AC102">
+        <v>1110091</v>
+      </c>
+      <c r="AD102">
+        <v>341005</v>
+      </c>
+      <c r="AE102">
+        <v>1110092</v>
+      </c>
+      <c r="AF102">
+        <v>1110086</v>
+      </c>
+      <c r="AG102">
+        <v>341006</v>
+      </c>
+      <c r="AH102">
+        <v>341007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3621,10 +3703,10 @@
         <v>40</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D103">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E103">
         <v>40</v>
@@ -3633,10 +3715,91 @@
         <v>40</v>
       </c>
       <c r="G103">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>40</v>
+      </c>
+      <c r="I103">
+        <v>40</v>
+      </c>
+      <c r="J103">
+        <v>40</v>
+      </c>
+      <c r="K103">
+        <v>40</v>
+      </c>
+      <c r="L103">
+        <v>40</v>
+      </c>
+      <c r="M103">
+        <v>40</v>
+      </c>
+      <c r="N103">
+        <v>40</v>
+      </c>
+      <c r="O103">
+        <v>40</v>
+      </c>
+      <c r="P103">
+        <v>40</v>
+      </c>
+      <c r="Q103">
+        <v>40</v>
+      </c>
+      <c r="R103">
+        <v>40</v>
+      </c>
+      <c r="S103">
+        <v>40</v>
+      </c>
+      <c r="T103">
+        <v>40</v>
+      </c>
+      <c r="U103">
+        <v>40</v>
+      </c>
+      <c r="V103">
+        <v>40</v>
+      </c>
+      <c r="W103">
+        <v>40</v>
+      </c>
+      <c r="X103">
+        <v>40</v>
+      </c>
+      <c r="Y103">
+        <v>40</v>
+      </c>
+      <c r="Z103">
+        <v>40</v>
+      </c>
+      <c r="AA103">
+        <v>40</v>
+      </c>
+      <c r="AB103">
+        <v>40</v>
+      </c>
+      <c r="AC103">
+        <v>40</v>
+      </c>
+      <c r="AD103">
+        <v>40</v>
+      </c>
+      <c r="AE103">
+        <v>40</v>
+      </c>
+      <c r="AF103">
+        <v>40</v>
+      </c>
+      <c r="AG103">
+        <v>40</v>
+      </c>
+      <c r="AH103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -3647,68 +3810,125 @@
         <v>60</v>
       </c>
       <c r="D104">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E104">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F104">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G104">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H104">
+        <v>60</v>
+      </c>
+      <c r="I104">
+        <v>60</v>
+      </c>
+      <c r="J104">
+        <v>60</v>
+      </c>
+      <c r="K104">
+        <v>60</v>
+      </c>
+      <c r="L104">
+        <v>60</v>
+      </c>
+      <c r="M104">
+        <v>60</v>
+      </c>
+      <c r="N104">
+        <v>60</v>
+      </c>
+      <c r="O104">
+        <v>60</v>
+      </c>
+      <c r="P104">
+        <v>60</v>
+      </c>
+      <c r="Q104">
+        <v>60</v>
+      </c>
+      <c r="R104">
+        <v>60</v>
+      </c>
+      <c r="S104">
+        <v>60</v>
+      </c>
+      <c r="T104">
+        <v>60</v>
+      </c>
+      <c r="U104">
+        <v>60</v>
+      </c>
+      <c r="V104">
+        <v>60</v>
+      </c>
+      <c r="W104">
+        <v>60</v>
+      </c>
+      <c r="X104">
+        <v>60</v>
+      </c>
+      <c r="Y104">
+        <v>60</v>
+      </c>
+      <c r="Z104">
+        <v>60</v>
+      </c>
+      <c r="AA104">
+        <v>60</v>
+      </c>
+      <c r="AB104">
+        <v>60</v>
+      </c>
+      <c r="AC104">
+        <v>60</v>
+      </c>
+      <c r="AD104">
+        <v>60</v>
+      </c>
+      <c r="AE104">
+        <v>60</v>
+      </c>
+      <c r="AF104">
+        <v>60</v>
+      </c>
+      <c r="AG104">
+        <v>60</v>
+      </c>
+      <c r="AH104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>23</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>26</v>
       </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>25</v>
       </c>
-      <c r="D108">
-        <v>7</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>24</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -3716,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>63</v>
       </c>
@@ -3724,7 +3944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>64</v>
       </c>
@@ -8274,4 +8494,283 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5DFDCD-99A3-454A-BCAF-5F8563B5CE3D}">
+  <dimension ref="A1:AI33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1110098</v>
+      </c>
+      <c r="C1">
+        <v>1110098</v>
+      </c>
+      <c r="D1">
+        <v>341016</v>
+      </c>
+      <c r="E1">
+        <v>1110095</v>
+      </c>
+      <c r="F1">
+        <v>341016</v>
+      </c>
+      <c r="G1">
+        <v>341003</v>
+      </c>
+      <c r="H1">
+        <v>1110089</v>
+      </c>
+      <c r="I1">
+        <v>1130028</v>
+      </c>
+      <c r="J1">
+        <v>341017</v>
+      </c>
+      <c r="K1">
+        <v>341002</v>
+      </c>
+      <c r="L1">
+        <v>1120021</v>
+      </c>
+      <c r="M1">
+        <v>341012</v>
+      </c>
+      <c r="N1">
+        <v>341004</v>
+      </c>
+      <c r="O1">
+        <v>341015</v>
+      </c>
+      <c r="P1">
+        <v>1120023</v>
+      </c>
+      <c r="Q1">
+        <v>1130025</v>
+      </c>
+      <c r="R1">
+        <v>341011</v>
+      </c>
+      <c r="S1">
+        <v>1110087</v>
+      </c>
+      <c r="T1">
+        <v>341001</v>
+      </c>
+      <c r="U1">
+        <v>341014</v>
+      </c>
+      <c r="V1">
+        <v>1110085</v>
+      </c>
+      <c r="W1">
+        <v>341009</v>
+      </c>
+      <c r="X1">
+        <v>1110082</v>
+      </c>
+      <c r="Y1">
+        <v>341010</v>
+      </c>
+      <c r="Z1">
+        <v>1110084</v>
+      </c>
+      <c r="AA1">
+        <v>1130026</v>
+      </c>
+      <c r="AB1">
+        <v>1130024</v>
+      </c>
+      <c r="AC1">
+        <v>341008</v>
+      </c>
+      <c r="AD1">
+        <v>1110091</v>
+      </c>
+      <c r="AE1">
+        <v>341005</v>
+      </c>
+      <c r="AF1">
+        <v>1110092</v>
+      </c>
+      <c r="AG1">
+        <v>1110086</v>
+      </c>
+      <c r="AH1">
+        <v>341006</v>
+      </c>
+      <c r="AI1">
+        <v>341007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>341016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1110095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>341016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>341003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1110089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1130028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>341017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>341002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1120021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>341012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>341004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>341015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1120023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1130025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>341011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1110087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>341001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>341014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1110085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>341009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1110082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>341010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1110084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1130026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1130024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>341008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1110091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>341005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1110092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1110086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>341006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>341007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TrickOrTreat/e2j.xlsx
+++ b/TrickOrTreat/e2j.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/TrickOrTreat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05ED141-91C2-B647-BE9A-26AE6F10E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D92DC-CC12-C449-9547-D6387FABEB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2840" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2840" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,7 +884,7 @@
   <dimension ref="A1:BC329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
